--- a/Result/21-09-24/NASDAQstock_21-09-24period252RS90.xlsx
+++ b/Result/21-09-24/NASDAQstock_21-09-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/21-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348CA3EC-E9CF-8148-843F-B7EB1D10F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FD07C-754C-4742-AA41-EBF7C96E66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="285">
   <si>
     <t>Stock</t>
   </si>
@@ -34,7 +34,10 @@
     <t>Close</t>
   </si>
   <si>
-    <t>Volatility (%)</t>
+    <t>Volatility 20 (%)</t>
+  </si>
+  <si>
+    <t>Volatility 60 (%)</t>
   </si>
   <si>
     <t>MA 5</t>
@@ -169,7 +172,7 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>Software—Application</t>
+    <t>Software - Application</t>
   </si>
   <si>
     <t>PIPR</t>
@@ -280,6 +283,9 @@
     <t>ADMA</t>
   </si>
   <si>
+    <t>2024-11-06 05:00:00-05:00</t>
+  </si>
+  <si>
     <t>Biotechnology</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>ALL</t>
   </si>
   <si>
+    <t>2024-10-30 16:00:00-04:00</t>
+  </si>
+  <si>
     <t>ENVA</t>
   </si>
   <si>
@@ -316,9 +325,6 @@
     <t>2024-10-30 06:00:00-04:00</t>
   </si>
   <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
     <t>SPOT</t>
   </si>
   <si>
@@ -445,6 +451,9 @@
     <t>GGAL</t>
   </si>
   <si>
+    <t>2024-11-19 16:00:00-05:00</t>
+  </si>
+  <si>
     <t>CRS</t>
   </si>
   <si>
@@ -623,6 +632,9 @@
   </si>
   <si>
     <t>AGX</t>
+  </si>
+  <si>
+    <t>2024-12-04 16:00:00-05:00</t>
   </si>
   <si>
     <t>ROAD</t>
@@ -869,7 +881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +893,6 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -891,13 +902,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -933,19 +957,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1250,143 +1269,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:38">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="1">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>95.770603756014282</v>
       </c>
       <c r="C2">
-        <v>95.770603756014282</v>
+        <v>2759</v>
       </c>
       <c r="D2">
-        <v>2759</v>
+        <v>60.05</v>
       </c>
       <c r="E2">
-        <v>60.05</v>
+        <v>1.61</v>
       </c>
       <c r="F2">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="G2">
         <v>59.631999206542972</v>
@@ -1440,7 +1462,7 @@
         <v>3.33</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2">
         <v>1567.37</v>
@@ -1461,13 +1483,13 @@
         <v>2406.67</v>
       </c>
       <c r="AF2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2">
         <v>5.77</v>
@@ -1483,137 +1505,137 @@
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="2">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4">
         <v>93.1864038491386</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4">
         <v>951</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4">
         <v>115.36</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4">
         <v>1.54</v>
       </c>
-      <c r="G3" s="3">
+      <c r="F3" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="G3" s="4">
         <v>116.0099990844727</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>113.79000015258789</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>107.9218002319336</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>84.366549758911134</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>1.02</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>1.07</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>7</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <v>2</v>
       </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
         <v>6.1111111111111098</v>
       </c>
-      <c r="S3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="S3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
         <v>56.51</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="4">
         <v>118.47</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="4">
         <v>33.840000000000003</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="4">
         <v>-12.68</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="4">
         <v>4.38</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="4">
         <v>30150</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="4">
         <v>161.9</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="4">
         <v>-52</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="4">
         <v>150</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="4">
         <v>-67.739999999999995</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AF3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AG3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AH3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="4">
         <v>0.78</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="4">
         <v>2.14</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="4">
         <v>174.36</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="4">
         <v>50.650322098934772</v>
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="1">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>90.121061617259045</v>
       </c>
       <c r="C4">
-        <v>90.121061617259045</v>
+        <v>330</v>
       </c>
       <c r="D4">
-        <v>330</v>
+        <v>32.85</v>
       </c>
       <c r="E4">
-        <v>32.85</v>
+        <v>2.64</v>
       </c>
       <c r="F4">
-        <v>2.64</v>
+        <v>3.88</v>
       </c>
       <c r="G4">
         <v>32.3879997253418</v>
@@ -1667,7 +1689,7 @@
         <v>4.57</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4">
         <v>119.21</v>
@@ -1688,13 +1710,13 @@
         <v>-5.88</v>
       </c>
       <c r="AF4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4">
         <v>0.78</v>
@@ -1710,23 +1732,23 @@
       </c>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="1">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>94.404780381809715</v>
       </c>
       <c r="C5">
-        <v>94.404780381809715</v>
+        <v>3789</v>
       </c>
       <c r="D5">
-        <v>3789</v>
+        <v>286.99</v>
       </c>
       <c r="E5">
-        <v>286.99</v>
+        <v>1.77</v>
       </c>
       <c r="F5">
-        <v>1.77</v>
+        <v>2.11</v>
       </c>
       <c r="G5">
         <v>278.36599731445312</v>
@@ -1801,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI5">
         <v>7.63</v>
@@ -1823,23 +1845,23 @@
       </c>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="1">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>91.905944435821823</v>
       </c>
       <c r="C6">
-        <v>91.905944435821823</v>
+        <v>2913</v>
       </c>
       <c r="D6">
-        <v>2913</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="E6">
-        <v>262.39999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="F6">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="G6">
         <v>258.26999816894528</v>
@@ -1914,13 +1936,13 @@
         <v>189.6</v>
       </c>
       <c r="AF6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI6">
         <v>7.92</v>
@@ -1936,23 +1958,23 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="1">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>98.944591029023741</v>
       </c>
       <c r="C7">
-        <v>98.944591029023741</v>
+        <v>1264</v>
       </c>
       <c r="D7">
-        <v>1264</v>
+        <v>201.99</v>
       </c>
       <c r="E7">
-        <v>201.99</v>
+        <v>3.01</v>
       </c>
       <c r="F7">
-        <v>3.01</v>
+        <v>3.55</v>
       </c>
       <c r="G7">
         <v>194.25599975585939</v>
@@ -1973,7 +1995,7 @@
         <v>1.17</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2030,13 +2052,13 @@
         <v>5.08</v>
       </c>
       <c r="AF7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI7">
         <v>0.28000000000000003</v>
@@ -2052,137 +2074,137 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="2">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2">
         <v>92.162036318485178</v>
       </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
         <v>1413</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
         <v>17.54</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="G8" s="2">
         <v>17.406000137329102</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>17.093500041961669</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>16.881200065612791</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>14.484600033760071</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>1.02</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>1.03</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <v>18.38</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <v>3.59</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Y8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="2">
         <v>136.84</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="2">
         <v>8609.68</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="2">
         <v>4.99</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="2">
         <v>-63.83</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="2">
         <v>1275</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="2">
         <v>-500</v>
       </c>
-      <c r="AF8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AF8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AG8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AH8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI8" s="2">
         <v>0.88</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="2">
         <v>1.48</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK8" s="2">
         <v>68.180000000000007</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AL8" s="2">
         <v>44.892317265985469</v>
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="1">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>92.596616483004809</v>
       </c>
       <c r="C9">
-        <v>92.596616483004809</v>
+        <v>1214</v>
       </c>
       <c r="D9">
-        <v>1214</v>
+        <v>30.95</v>
       </c>
       <c r="E9">
-        <v>30.95</v>
+        <v>1.51</v>
       </c>
       <c r="F9">
-        <v>1.51</v>
+        <v>2.98</v>
       </c>
       <c r="G9">
         <v>31.95</v>
@@ -2257,13 +2279,13 @@
         <v>293.75</v>
       </c>
       <c r="AF9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI9">
         <v>1.99</v>
@@ -2279,137 +2301,136 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="2">
-        <v>91</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
         <v>93.1864038491386</v>
       </c>
-      <c r="D10" s="3">
+      <c r="C10">
         <v>869</v>
       </c>
-      <c r="E10" s="3">
+      <c r="D10">
         <v>259.24</v>
       </c>
-      <c r="F10" s="3">
+      <c r="E10">
         <v>0.92</v>
       </c>
-      <c r="G10" s="3">
+      <c r="F10">
+        <v>1.46</v>
+      </c>
+      <c r="G10">
         <v>257.08399963378912</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>251.2294998168945</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>233.3854006958008</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>203.58100044250489</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>1.02</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
+      <c r="N10">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>5.5555555555555554</v>
       </c>
-      <c r="S10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10">
         <v>137.59</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10">
         <v>260.45999999999998</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10">
         <v>151.86000000000001</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10">
         <v>8.09</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10">
         <v>113.02</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10">
         <v>335.48</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10">
         <v>34.450000000000003</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10">
         <v>-36.96</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10">
         <v>16.52</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10">
         <v>78.42</v>
       </c>
-      <c r="AF10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AF10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="s">
         <v>41</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AH10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10">
         <v>11.69</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10">
         <v>13.03</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK10">
         <v>11.46</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL10">
         <v>42.355992439837713</v>
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="1">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>93.349371410833456</v>
       </c>
       <c r="C11">
-        <v>93.349371410833456</v>
+        <v>3563</v>
       </c>
       <c r="D11">
-        <v>3563</v>
+        <v>20.47</v>
       </c>
       <c r="E11">
-        <v>20.47</v>
+        <v>2.65</v>
       </c>
       <c r="F11">
-        <v>2.65</v>
+        <v>3.27</v>
       </c>
       <c r="G11">
         <v>20.865999984741212</v>
@@ -2460,7 +2481,7 @@
         <v>21.94</v>
       </c>
       <c r="X11">
-        <v>3.87</v>
+        <v>4.01</v>
       </c>
       <c r="Y11">
         <v>-26.54</v>
@@ -2484,13 +2505,13 @@
         <v>-150.56</v>
       </c>
       <c r="AF11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI11">
         <v>0.72</v>
@@ -2506,23 +2527,23 @@
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="1">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>92.596616483004809</v>
       </c>
       <c r="C12">
-        <v>92.596616483004809</v>
+        <v>2135</v>
       </c>
       <c r="D12">
-        <v>2135</v>
+        <v>521.01</v>
       </c>
       <c r="E12">
-        <v>521.01</v>
+        <v>1.46</v>
       </c>
       <c r="F12">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
         <v>527.26401367187498</v>
@@ -2597,13 +2618,13 @@
         <v>11.37</v>
       </c>
       <c r="AF12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12">
         <v>10.15</v>
@@ -2619,23 +2640,23 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="1">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>90.400434580164529</v>
       </c>
       <c r="C13">
-        <v>90.400434580164529</v>
+        <v>3741</v>
       </c>
       <c r="D13">
-        <v>3741</v>
+        <v>45.57</v>
       </c>
       <c r="E13">
-        <v>45.57</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F13">
-        <v>2.0699999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="G13">
         <v>45.77600021362305</v>
@@ -2710,13 +2731,13 @@
         <v>-4.76</v>
       </c>
       <c r="AF13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13">
         <v>6.55</v>
@@ -2732,23 +2753,23 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="1">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>95.289461431010409</v>
       </c>
       <c r="C14">
-        <v>95.289461431010409</v>
+        <v>280</v>
       </c>
       <c r="D14">
-        <v>280</v>
+        <v>187.43</v>
       </c>
       <c r="E14">
-        <v>187.43</v>
+        <v>2.12</v>
       </c>
       <c r="F14">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="G14">
         <v>183.78200073242189</v>
@@ -2802,7 +2823,7 @@
         <v>203.23</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z14">
         <v>87.36</v>
@@ -2823,45 +2844,45 @@
         <v>508.33</v>
       </c>
       <c r="AF14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="AJ14">
         <v>5.23</v>
       </c>
       <c r="AK14">
-        <v>41.35</v>
+        <v>41.73</v>
       </c>
       <c r="AL14">
         <v>40.609347716193056</v>
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="1">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>98.246158621760046</v>
       </c>
       <c r="C15">
-        <v>98.246158621760046</v>
+        <v>1798</v>
       </c>
       <c r="D15">
-        <v>1798</v>
+        <v>165</v>
       </c>
       <c r="E15">
-        <v>165</v>
+        <v>3.54</v>
       </c>
       <c r="F15">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="G15">
         <v>158.84600219726559</v>
@@ -2936,13 +2957,13 @@
         <v>-2500</v>
       </c>
       <c r="AF15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15">
         <v>0.03</v>
@@ -2958,130 +2979,133 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="1">
-        <v>109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2">
         <v>91.626571472916339</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="2">
         <v>4384</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="2">
         <v>27.84</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="2">
         <v>1.26</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G16" s="2">
         <v>27.254000091552729</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>26.69550008773804</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>25.778400039672849</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>21.445474939346312</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>1.02</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1.06</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
         <v>14.46</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <v>27.84</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="2">
         <v>4.7699999999999996</v>
       </c>
-      <c r="Y16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16">
+      <c r="Y16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="2">
         <v>639.17999999999995</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="2">
         <v>451.32</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="2">
         <v>2.79</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="2">
         <v>245.95</v>
       </c>
-      <c r="AF16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG16" t="s">
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AG16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AI16">
+      <c r="AH16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI16" s="2">
         <v>0.6</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="2">
         <v>2.95</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="2">
         <v>391.67</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="2">
         <v>38.422114196546119</v>
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17">
+        <v>99.689585596771693</v>
       </c>
       <c r="C17">
-        <v>99.689585596771693</v>
+        <v>134</v>
       </c>
       <c r="D17">
-        <v>134</v>
+        <v>19.98</v>
       </c>
       <c r="E17">
-        <v>19.98</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F17">
-        <v>4.1900000000000004</v>
+        <v>5.14</v>
       </c>
       <c r="G17">
         <v>19.18999977111816</v>
@@ -3156,13 +3180,13 @@
         <v>133.33000000000001</v>
       </c>
       <c r="AF17" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AG17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI17">
         <v>0.14000000000000001</v>
@@ -3178,23 +3202,23 @@
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" s="1">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <v>94.001241657612908</v>
       </c>
       <c r="C18">
-        <v>94.001241657612908</v>
+        <v>2250</v>
       </c>
       <c r="D18">
-        <v>2250</v>
+        <v>80.11</v>
       </c>
       <c r="E18">
-        <v>80.11</v>
+        <v>2.36</v>
       </c>
       <c r="F18">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G18">
         <v>80.819999694824219</v>
@@ -3269,13 +3293,13 @@
         <v>1.27</v>
       </c>
       <c r="AF18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI18">
         <v>7.28</v>
@@ -3291,23 +3315,23 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>90.400434580164529</v>
       </c>
       <c r="C19">
-        <v>90.400434580164529</v>
+        <v>1046</v>
       </c>
       <c r="D19">
-        <v>1046</v>
+        <v>191</v>
       </c>
       <c r="E19">
-        <v>191</v>
+        <v>0.89</v>
       </c>
       <c r="F19">
-        <v>0.89</v>
+        <v>1.52</v>
       </c>
       <c r="G19">
         <v>190.70199584960929</v>
@@ -3361,7 +3385,7 @@
         <v>50.43</v>
       </c>
       <c r="Y19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z19">
         <v>1480.66</v>
@@ -3373,22 +3397,22 @@
         <v>17.78</v>
       </c>
       <c r="AC19">
+        <v>-74.72</v>
+      </c>
+      <c r="AD19">
         <v>-18.88</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>3575</v>
       </c>
-      <c r="AE19">
-        <v>96.98</v>
-      </c>
       <c r="AF19" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AG19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI19">
         <v>10.96</v>
@@ -3404,23 +3428,23 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="1">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20">
+        <v>92.162036318485178</v>
       </c>
       <c r="C20">
-        <v>92.162036318485178</v>
+        <v>3168</v>
       </c>
       <c r="D20">
-        <v>3168</v>
+        <v>84.93</v>
       </c>
       <c r="E20">
-        <v>84.93</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F20">
-        <v>2.4300000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G20">
         <v>83.259999084472653</v>
@@ -3495,13 +3519,13 @@
         <v>-11.85</v>
       </c>
       <c r="AF20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI20">
         <v>6</v>
@@ -3517,23 +3541,23 @@
       </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="1">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>96.236225360856736</v>
       </c>
       <c r="C21">
-        <v>96.236225360856736</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>114</v>
+        <v>22.73</v>
       </c>
       <c r="E21">
-        <v>22.73</v>
+        <v>2.96</v>
       </c>
       <c r="F21">
-        <v>2.96</v>
+        <v>3.36</v>
       </c>
       <c r="G21">
         <v>22.66799964904785</v>
@@ -3608,13 +3632,13 @@
         <v>122.22</v>
       </c>
       <c r="AF21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI21">
         <v>0.31</v>
@@ -3630,23 +3654,23 @@
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="1">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <v>93.1864038491386</v>
       </c>
       <c r="C22">
-        <v>93.1864038491386</v>
+        <v>2218</v>
       </c>
       <c r="D22">
-        <v>2218</v>
+        <v>15.21</v>
       </c>
       <c r="E22">
-        <v>15.21</v>
+        <v>1.97</v>
       </c>
       <c r="F22">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="G22">
         <v>14.608000183105471</v>
@@ -3700,7 +3724,7 @@
         <v>2.23</v>
       </c>
       <c r="Y22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z22">
         <v>118.84</v>
@@ -3721,13 +3745,13 @@
         <v>73.33</v>
       </c>
       <c r="AF22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AI22">
         <v>0.11</v>
@@ -3743,23 +3767,23 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="1">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>96.422474002793734</v>
       </c>
       <c r="C23">
-        <v>96.422474002793734</v>
+        <v>1298</v>
       </c>
       <c r="D23">
-        <v>1298</v>
+        <v>365.17</v>
       </c>
       <c r="E23">
-        <v>365.17</v>
+        <v>1.77</v>
       </c>
       <c r="F23">
-        <v>1.77</v>
+        <v>2.25</v>
       </c>
       <c r="G23">
         <v>350.0679992675781</v>
@@ -3780,7 +3804,7 @@
         <v>1.06</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3837,13 +3861,13 @@
         <v>-206.1</v>
       </c>
       <c r="AF23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AI23">
         <v>2.52</v>
@@ -3859,23 +3883,23 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="1">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>90.695328263231417</v>
       </c>
       <c r="C24">
-        <v>90.695328263231417</v>
+        <v>386</v>
       </c>
       <c r="D24">
-        <v>386</v>
+        <v>49.95</v>
       </c>
       <c r="E24">
-        <v>49.95</v>
+        <v>2.48</v>
       </c>
       <c r="F24">
-        <v>2.48</v>
+        <v>2.73</v>
       </c>
       <c r="G24">
         <v>49.95</v>
@@ -3929,7 +3953,7 @@
         <v>15.99</v>
       </c>
       <c r="Y24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z24">
         <v>145.91999999999999</v>
@@ -3950,45 +3974,45 @@
         <v>1939.64</v>
       </c>
       <c r="AF24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AI24">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ24">
         <v>1.1299999999999999</v>
       </c>
       <c r="AK24">
-        <v>101.79</v>
+        <v>105.45</v>
       </c>
       <c r="AL24">
         <v>35.168434777095449</v>
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="1">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25">
+        <v>93.504578612447617</v>
       </c>
       <c r="C25">
-        <v>93.504578612447617</v>
+        <v>2280</v>
       </c>
       <c r="D25">
-        <v>2280</v>
+        <v>238.02</v>
       </c>
       <c r="E25">
-        <v>238.02</v>
+        <v>1.35</v>
       </c>
       <c r="F25">
-        <v>1.35</v>
+        <v>1.96</v>
       </c>
       <c r="G25">
         <v>235.55400085449219</v>
@@ -4063,45 +4087,45 @@
         <v>31.4</v>
       </c>
       <c r="AF25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AI25">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="AJ25">
         <v>17.850000000000001</v>
       </c>
       <c r="AK25">
-        <v>31.25</v>
+        <v>31.15</v>
       </c>
       <c r="AL25">
         <v>34.222931948238838</v>
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>96.732888406022042</v>
       </c>
       <c r="C26">
-        <v>96.732888406022042</v>
+        <v>911</v>
       </c>
       <c r="D26">
-        <v>911</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E26">
-        <v>4.5599999999999996</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F26">
-        <v>2.2400000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G26">
         <v>4.5560000419616697</v>
@@ -4152,7 +4176,7 @@
         <v>4.76</v>
       </c>
       <c r="X26">
-        <v>7.48</v>
+        <v>7.52</v>
       </c>
       <c r="Y26">
         <v>27.58</v>
@@ -4176,13 +4200,13 @@
         <v>80.67</v>
       </c>
       <c r="AF26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AG26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI26">
         <v>0.3</v>
@@ -4198,23 +4222,23 @@
       </c>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="1">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27">
+        <v>97.384758652801494</v>
       </c>
       <c r="C27">
-        <v>97.384758652801494</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
         <v>37.200000000000003</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="3">
         <v>3.45</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.42</v>
       </c>
       <c r="G27">
         <v>36.634001159667967</v>
@@ -4235,7 +4259,7 @@
         <v>1.2</v>
       </c>
       <c r="M27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4271,7 +4295,7 @@
         <v>83.31</v>
       </c>
       <c r="Y27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z27">
         <v>41.8</v>
@@ -4292,13 +4316,13 @@
         <v>66.67</v>
       </c>
       <c r="AF27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AI27">
         <v>0.17</v>
@@ -4314,139 +4338,139 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="4">
-        <v>86</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28">
         <v>97.563246934657769</v>
       </c>
-      <c r="D28" s="5">
+      <c r="C28">
         <v>2616</v>
       </c>
-      <c r="E28" s="5">
+      <c r="D28">
         <v>206.34</v>
       </c>
-      <c r="F28" s="5">
+      <c r="E28" s="3">
         <v>4.74</v>
       </c>
-      <c r="G28" s="5">
+      <c r="F28" s="3">
+        <v>6.36</v>
+      </c>
+      <c r="G28">
         <v>184.8799987792969</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <v>170.1359992980957</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28">
         <v>159.9677996826172</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28">
         <v>142.1941499710083</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
         <v>1.0900000000000001</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5">
-        <v>0</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>1</v>
-      </c>
-      <c r="R28" s="5">
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
         <v>2.2222222222222219</v>
       </c>
-      <c r="S28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V28" s="5">
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>72.510000000000005</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28">
         <v>209.14</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28">
         <v>2.4700000000000002</v>
       </c>
-      <c r="Y28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z28" s="5">
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28">
         <v>161.78</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AA28">
         <v>149.13999999999999</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28">
         <v>34.24</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AC28">
         <v>37.99</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AD28">
         <v>38.119999999999997</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AE28">
         <v>-9.42</v>
       </c>
-      <c r="AF28" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI28" s="5">
+      <c r="AF28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI28">
         <v>10.7</v>
       </c>
-      <c r="AJ28" s="5">
+      <c r="AJ28">
         <v>12.45</v>
       </c>
-      <c r="AK28" s="5">
+      <c r="AK28">
         <v>16.36</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AL28">
         <v>33.189526738449551</v>
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="1">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29">
+        <v>98.781623467328885</v>
       </c>
       <c r="C29">
-        <v>98.781623467328885</v>
+        <v>229</v>
       </c>
       <c r="D29">
-        <v>229</v>
-      </c>
-      <c r="E29">
         <v>126.09</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="3">
         <v>4.2699999999999996</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.1100000000000003</v>
       </c>
       <c r="G29">
         <v>122.6279998779297</v>
@@ -4521,45 +4545,45 @@
         <v>50</v>
       </c>
       <c r="AF29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AI29">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="AJ29">
         <v>4.45</v>
       </c>
       <c r="AK29">
-        <v>90.17</v>
+        <v>89.36</v>
       </c>
       <c r="AL29">
         <v>33.167021197818528</v>
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="1">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30">
+        <v>95.46794971286667</v>
       </c>
       <c r="C30">
-        <v>95.46794971286667</v>
+        <v>1830</v>
       </c>
       <c r="D30">
-        <v>1830</v>
+        <v>80.28</v>
       </c>
       <c r="E30">
-        <v>80.28</v>
+        <v>1.53</v>
       </c>
       <c r="F30">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="G30">
         <v>78.61600036621094</v>
@@ -4634,13 +4658,13 @@
         <v>435.9</v>
       </c>
       <c r="AF30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI30">
         <v>2.0099999999999998</v>
@@ -4656,23 +4680,23 @@
       </c>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" s="1">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>96.973459568523978</v>
       </c>
       <c r="C31">
-        <v>96.973459568523978</v>
+        <v>1057</v>
       </c>
       <c r="D31">
-        <v>1057</v>
+        <v>35.1</v>
       </c>
       <c r="E31">
-        <v>35.1</v>
+        <v>2.63</v>
       </c>
       <c r="F31">
-        <v>2.63</v>
+        <v>3.28</v>
       </c>
       <c r="G31">
         <v>35.051999664306642</v>
@@ -4726,7 +4750,7 @@
         <v>6.45</v>
       </c>
       <c r="Y31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z31">
         <v>88.95</v>
@@ -4747,158 +4771,159 @@
         <v>211.77</v>
       </c>
       <c r="AF31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AG31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31">
-        <v>2.0699999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="AJ31">
         <v>2.04</v>
       </c>
       <c r="AK31">
-        <v>-1.45</v>
+        <v>-0.97</v>
       </c>
       <c r="AL31">
         <v>32.076886552545233</v>
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="1">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32">
+      <c r="A32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4">
         <v>93.349371410833456</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="4">
         <v>1681</v>
       </c>
-      <c r="E32">
+      <c r="D32" s="4">
         <v>105.55</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="4">
         <v>1.67</v>
       </c>
-      <c r="G32">
+      <c r="F32" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="G32" s="4">
         <v>102.2120010375977</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>97.146500396728513</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>94.861600341796873</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>81.289600200653069</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>1.05</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>1.08</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="b">
-        <v>0</v>
-      </c>
-      <c r="T32" t="b">
-        <v>1</v>
-      </c>
-      <c r="U32" t="b">
-        <v>0</v>
-      </c>
-      <c r="V32">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
         <v>49.47</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="4">
         <v>106.57</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="4">
         <v>7.42</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="4">
         <v>-1.98</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="4">
         <v>56.46</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="4">
         <v>899.93</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="4">
         <v>28.86</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="4">
         <v>49.66</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="4">
         <v>79.52</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="4">
         <v>-49.08</v>
       </c>
-      <c r="AF32" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI32">
+      <c r="AF32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI32" s="4">
         <v>6.15</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ32" s="4">
         <v>5.24</v>
       </c>
-      <c r="AK32">
+      <c r="AK32" s="4">
         <v>-14.8</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" s="4">
         <v>31.944239365218031</v>
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33">
+        <v>98.067670339903771</v>
       </c>
       <c r="C33">
-        <v>98.067670339903771</v>
+        <v>1268</v>
       </c>
       <c r="D33">
-        <v>1268</v>
+        <v>15.59</v>
       </c>
       <c r="E33">
-        <v>15.59</v>
+        <v>4.62</v>
       </c>
       <c r="F33">
-        <v>4.62</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="G33">
         <v>15.256000137329099</v>
@@ -4952,7 +4977,7 @@
         <v>1.08</v>
       </c>
       <c r="Y33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z33">
         <v>154.16999999999999</v>
@@ -4964,22 +4989,22 @@
         <v>7.5</v>
       </c>
       <c r="AC33">
+        <v>225</v>
+      </c>
+      <c r="AD33">
         <v>-77.78</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>260</v>
       </c>
-      <c r="AE33">
-        <v>200</v>
-      </c>
       <c r="AF33" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI33">
         <v>0.39</v>
@@ -4995,23 +5020,23 @@
       </c>
     </row>
     <row r="34" spans="1:38">
-      <c r="A34" s="1">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34">
+        <v>93.349371410833456</v>
       </c>
       <c r="C34">
-        <v>93.349371410833456</v>
+        <v>3045</v>
       </c>
       <c r="D34">
-        <v>3045</v>
+        <v>256.75</v>
       </c>
       <c r="E34">
-        <v>256.75</v>
+        <v>1.67</v>
       </c>
       <c r="F34">
-        <v>1.67</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G34">
         <v>249.4580017089844</v>
@@ -5086,45 +5111,45 @@
         <v>42.27</v>
       </c>
       <c r="AF34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI34">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="AJ34">
         <v>14.49</v>
       </c>
       <c r="AK34">
-        <v>100.41</v>
+        <v>100.14</v>
       </c>
       <c r="AL34">
         <v>31.27146315102193</v>
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="1">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35">
+        <v>99.410212633866209</v>
       </c>
       <c r="C35">
-        <v>99.410212633866209</v>
+        <v>1010</v>
       </c>
       <c r="D35">
-        <v>1010</v>
+        <v>27.46</v>
       </c>
       <c r="E35">
-        <v>27.46</v>
+        <v>5.14</v>
       </c>
       <c r="F35">
-        <v>5.14</v>
+        <v>5.61</v>
       </c>
       <c r="G35">
         <v>25.891999816894529</v>
@@ -5199,45 +5224,45 @@
         <v>94.74</v>
       </c>
       <c r="AF35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ35">
         <v>0.54</v>
       </c>
       <c r="AK35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL35">
         <v>31.153614069474269</v>
       </c>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="1">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36">
+        <v>99.247245072171353</v>
       </c>
       <c r="C36">
-        <v>99.247245072171353</v>
+        <v>530</v>
       </c>
       <c r="D36">
-        <v>530</v>
+        <v>22.93</v>
       </c>
       <c r="E36">
-        <v>22.93</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F36">
-        <v>4.6900000000000004</v>
+        <v>4.22</v>
       </c>
       <c r="G36">
         <v>22.530000305175779</v>
@@ -5312,13 +5337,13 @@
         <v>-134.47999999999999</v>
       </c>
       <c r="AF36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AI36">
         <v>-0.15</v>
@@ -5334,23 +5359,23 @@
       </c>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="1">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>98.021108179419528</v>
       </c>
       <c r="C37">
-        <v>98.021108179419528</v>
+        <v>2215</v>
       </c>
       <c r="D37">
-        <v>2215</v>
+        <v>54.51</v>
       </c>
       <c r="E37">
-        <v>54.51</v>
+        <v>3.31</v>
       </c>
       <c r="F37">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="G37">
         <v>51.860999298095713</v>
@@ -5425,13 +5450,13 @@
         <v>39.659999999999997</v>
       </c>
       <c r="AF37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AI37">
         <v>3.01</v>
@@ -5447,23 +5472,23 @@
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="1">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>137</v>
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38">
+        <v>95.537792953593055</v>
       </c>
       <c r="C38">
-        <v>95.537792953593055</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>14.63</v>
       </c>
       <c r="E38">
-        <v>14.63</v>
+        <v>2.38</v>
       </c>
       <c r="F38">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="G38">
         <v>14.8620002746582</v>
@@ -5517,7 +5542,7 @@
         <v>70.069999999999993</v>
       </c>
       <c r="Y38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z38">
         <v>73.349999999999994</v>
@@ -5538,13 +5563,13 @@
         <v>19.28</v>
       </c>
       <c r="AF38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI38">
         <v>0.31</v>
@@ -5560,23 +5585,23 @@
       </c>
     </row>
     <row r="39" spans="1:38">
-      <c r="A39" s="1">
-        <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>139</v>
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39">
+        <v>91.013503026540434</v>
       </c>
       <c r="C39">
-        <v>91.013503026540434</v>
+        <v>1355</v>
       </c>
       <c r="D39">
-        <v>1355</v>
+        <v>7.12</v>
       </c>
       <c r="E39">
-        <v>7.12</v>
+        <v>2.56</v>
       </c>
       <c r="F39">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="G39">
         <v>7.2979998588562012</v>
@@ -5651,13 +5676,13 @@
         <v>58.49</v>
       </c>
       <c r="AF39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI39">
         <v>0.27</v>
@@ -5673,23 +5698,23 @@
       </c>
     </row>
     <row r="40" spans="1:38">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>140</v>
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40">
+        <v>98.533291944746239</v>
       </c>
       <c r="C40">
-        <v>98.533291944746239</v>
+        <v>1619</v>
       </c>
       <c r="D40">
-        <v>1619</v>
+        <v>46.63</v>
       </c>
       <c r="E40">
-        <v>46.63</v>
+        <v>2.7</v>
       </c>
       <c r="F40">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G40">
         <v>45.86600036621094</v>
@@ -5740,7 +5765,7 @@
         <v>47.7</v>
       </c>
       <c r="X40">
-        <v>6.98</v>
+        <v>7.09</v>
       </c>
       <c r="Y40">
         <v>16.66</v>
@@ -5755,167 +5780,168 @@
         <v>34.950000000000003</v>
       </c>
       <c r="AC40">
+        <v>46.75</v>
+      </c>
+      <c r="AD40">
         <v>225.27</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>-52.7</v>
       </c>
-      <c r="AE40">
-        <v>140.43</v>
-      </c>
       <c r="AF40" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AG40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI40">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AJ40">
         <v>7.12</v>
       </c>
       <c r="AK40">
-        <v>199.16</v>
+        <v>200.42</v>
       </c>
       <c r="AL40">
         <v>29.540636180092051</v>
       </c>
     </row>
     <row r="41" spans="1:38">
-      <c r="A41" s="1">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41">
+      <c r="A41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="2">
         <v>96.538879404004348</v>
       </c>
-      <c r="D41">
+      <c r="C41" s="2">
         <v>1925</v>
       </c>
-      <c r="E41">
+      <c r="D41" s="2">
         <v>156.65</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="2">
         <v>2.71</v>
       </c>
-      <c r="G41">
+      <c r="F41" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="G41" s="2">
         <v>148.66599731445311</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>141.54399948120121</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>137.1447993469238</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>94.984649963378899</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>1.05</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <v>1.08</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
         <v>2</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="2">
         <v>3.333333333333333</v>
       </c>
-      <c r="S41" t="b">
-        <v>0</v>
-      </c>
-      <c r="T41" t="b">
-        <v>1</v>
-      </c>
-      <c r="U41" t="b">
-        <v>0</v>
-      </c>
-      <c r="V41">
+      <c r="S41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
         <v>58.87</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="2">
         <v>157.49</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="2">
         <v>7.82</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="2">
         <v>1.52</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="2">
         <v>34</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="2">
         <v>138.33000000000001</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="2">
         <v>12.3</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="2">
         <v>1458.33</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="2">
         <v>-86.05</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="2">
         <v>-3.37</v>
       </c>
-      <c r="AF41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI41">
+      <c r="AF41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI41" s="2">
         <v>3.7</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="2">
         <v>7.97</v>
       </c>
-      <c r="AK41">
+      <c r="AK41" s="2">
         <v>115.41</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" s="2">
         <v>29.267663665043361</v>
       </c>
     </row>
     <row r="42" spans="1:38">
-      <c r="A42" s="1">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42">
+        <v>92.82166692534534</v>
       </c>
       <c r="C42">
-        <v>92.82166692534534</v>
+        <v>1103</v>
       </c>
       <c r="D42">
-        <v>1103</v>
+        <v>163.25</v>
       </c>
       <c r="E42">
-        <v>163.25</v>
+        <v>1.86</v>
       </c>
       <c r="F42">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="G42">
         <v>158.74399719238281</v>
@@ -5990,159 +6016,159 @@
         <v>-53.15</v>
       </c>
       <c r="AF42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AI42">
-        <v>4.3499999999999996</v>
+        <v>4.34</v>
       </c>
       <c r="AJ42">
         <v>5.53</v>
       </c>
       <c r="AK42">
-        <v>27.13</v>
+        <v>27.42</v>
       </c>
       <c r="AL42">
         <v>28.643600938903919</v>
       </c>
     </row>
     <row r="43" spans="1:38">
-      <c r="A43" s="2">
-        <v>5</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="A43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="2">
         <v>96.011174918516218</v>
       </c>
-      <c r="D43" s="3">
+      <c r="C43" s="2">
         <v>1716</v>
       </c>
-      <c r="E43" s="3">
+      <c r="D43" s="2">
         <v>50.33</v>
       </c>
-      <c r="F43" s="3">
+      <c r="E43" s="2">
         <v>1.45</v>
       </c>
-      <c r="G43" s="3">
+      <c r="F43" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="G43" s="2">
         <v>49.373999786376963</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>48.782499885559083</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>46.221400146484378</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>36.15229998588562</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>1.01</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>1.07</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="M43" s="2"/>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
         <v>19.559999999999999</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="2">
         <v>50.78</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="2">
         <v>5.27</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="2">
         <v>13.76</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="2">
         <v>37.630000000000003</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="2">
         <v>569.95000000000005</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="2">
         <v>15.25</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="2">
+        <v>514.29</v>
+      </c>
+      <c r="AD43" s="2">
         <v>-106.19</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="2">
         <v>222.86</v>
       </c>
-      <c r="AE43" s="3">
-        <v>683.33</v>
-      </c>
-      <c r="AF43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI43" s="3">
+      <c r="AF43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI43" s="2">
         <v>1.7</v>
       </c>
-      <c r="AJ43" s="3">
+      <c r="AJ43" s="2">
         <v>1.95</v>
       </c>
-      <c r="AK43" s="3">
+      <c r="AK43" s="2">
         <v>14.71</v>
       </c>
-      <c r="AL43" s="3">
+      <c r="AL43" s="2">
         <v>28.46998118140344</v>
       </c>
     </row>
     <row r="44" spans="1:38">
-      <c r="A44" s="1">
-        <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44">
+        <v>91.626571472916339</v>
       </c>
       <c r="C44">
-        <v>91.626571472916339</v>
+        <v>619</v>
       </c>
       <c r="D44">
-        <v>619</v>
+        <v>18.25</v>
       </c>
       <c r="E44">
-        <v>18.25</v>
+        <v>2.11</v>
       </c>
       <c r="F44">
-        <v>2.11</v>
+        <v>2.33</v>
       </c>
       <c r="G44">
         <v>17.867999649047849</v>
@@ -6196,7 +6222,7 @@
         <v>3.03</v>
       </c>
       <c r="Y44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z44">
         <v>154.43</v>
@@ -6217,13 +6243,13 @@
         <v>300</v>
       </c>
       <c r="AF44" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44">
         <v>1.31</v>
@@ -6239,23 +6265,23 @@
       </c>
     </row>
     <row r="45" spans="1:38">
-      <c r="A45" s="1">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>149</v>
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45">
+        <v>99.332609033059143</v>
       </c>
       <c r="C45">
-        <v>99.332609033059143</v>
+        <v>844</v>
       </c>
       <c r="D45">
-        <v>844</v>
+        <v>128.79</v>
       </c>
       <c r="E45">
-        <v>128.79</v>
+        <v>5.15</v>
       </c>
       <c r="F45">
-        <v>5.15</v>
+        <v>3.81</v>
       </c>
       <c r="G45">
         <v>124.7259994506836</v>
@@ -6309,7 +6335,7 @@
         <v>14.72</v>
       </c>
       <c r="Y45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z45">
         <v>99.61</v>
@@ -6330,13 +6356,13 @@
         <v>-73.91</v>
       </c>
       <c r="AF45" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI45">
         <v>0.18</v>
@@ -6352,23 +6378,23 @@
       </c>
     </row>
     <row r="46" spans="1:38">
-      <c r="A46" s="1">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>152</v>
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46">
+        <v>94.404780381809715</v>
       </c>
       <c r="C46">
-        <v>94.404780381809715</v>
+        <v>1896</v>
       </c>
       <c r="D46">
-        <v>1896</v>
+        <v>169.58</v>
       </c>
       <c r="E46">
-        <v>169.58</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F46">
-        <v>2.2000000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="G46">
         <v>168.55000305175781</v>
@@ -6443,45 +6469,45 @@
         <v>-23.69</v>
       </c>
       <c r="AF46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI46">
-        <v>18.34</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="AJ46">
         <v>20.76</v>
       </c>
       <c r="AK46">
-        <v>13.2</v>
+        <v>13.26</v>
       </c>
       <c r="AL46">
         <v>27.526407365898461</v>
       </c>
     </row>
     <row r="47" spans="1:38">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>154</v>
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47">
+        <v>95.537792953593055</v>
       </c>
       <c r="C47">
-        <v>95.537792953593055</v>
+        <v>2576</v>
       </c>
       <c r="D47">
-        <v>2576</v>
+        <v>142.19</v>
       </c>
       <c r="E47">
-        <v>142.19</v>
+        <v>1.49</v>
       </c>
       <c r="F47">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="G47">
         <v>140.6559997558594</v>
@@ -6556,13 +6582,13 @@
         <v>313.33</v>
       </c>
       <c r="AF47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI47">
         <v>0.51</v>
@@ -6578,23 +6604,23 @@
       </c>
     </row>
     <row r="48" spans="1:38">
-      <c r="A48" s="1">
-        <v>71</v>
-      </c>
-      <c r="B48" t="s">
-        <v>156</v>
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48">
+        <v>92.596616483004809</v>
       </c>
       <c r="C48">
-        <v>92.596616483004809</v>
+        <v>2733</v>
       </c>
       <c r="D48">
-        <v>2733</v>
+        <v>280.17</v>
       </c>
       <c r="E48">
-        <v>280.17</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F48">
-        <v>2.5299999999999998</v>
+        <v>3.07</v>
       </c>
       <c r="G48">
         <v>267.54600219726558</v>
@@ -6669,45 +6695,45 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AI48">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="AJ48">
         <v>3.36</v>
       </c>
       <c r="AK48">
-        <v>309.76</v>
+        <v>314.81</v>
       </c>
       <c r="AL48">
         <v>26.924350316278069</v>
       </c>
     </row>
     <row r="49" spans="1:38">
-      <c r="A49" s="1">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>157</v>
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49">
+        <v>96.973459568523978</v>
       </c>
       <c r="C49">
-        <v>96.973459568523978</v>
+        <v>1678</v>
       </c>
       <c r="D49">
-        <v>1678</v>
+        <v>105.77</v>
       </c>
       <c r="E49">
-        <v>105.77</v>
+        <v>1.79</v>
       </c>
       <c r="F49">
-        <v>1.79</v>
+        <v>2.85</v>
       </c>
       <c r="G49">
         <v>104.92999877929689</v>
@@ -6761,7 +6787,7 @@
         <v>14.8</v>
       </c>
       <c r="Y49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z49">
         <v>31.09</v>
@@ -6782,13 +6808,13 @@
         <v>44.44</v>
       </c>
       <c r="AF49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AI49">
         <v>1.75</v>
@@ -6804,23 +6830,23 @@
       </c>
     </row>
     <row r="50" spans="1:38">
-      <c r="A50" s="1">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>159</v>
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50">
+        <v>92.162036318485178</v>
       </c>
       <c r="C50">
-        <v>92.162036318485178</v>
+        <v>2415</v>
       </c>
       <c r="D50">
-        <v>2415</v>
+        <v>75.3</v>
       </c>
       <c r="E50">
-        <v>75.3</v>
+        <v>1.46</v>
       </c>
       <c r="F50">
-        <v>1.46</v>
+        <v>2.09</v>
       </c>
       <c r="G50">
         <v>74.197999572753901</v>
@@ -6895,13 +6921,13 @@
         <v>284.62</v>
       </c>
       <c r="AF50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AI50">
         <v>3.42</v>
@@ -6917,23 +6943,23 @@
       </c>
     </row>
     <row r="51" spans="1:38">
-      <c r="A51" s="1">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>161</v>
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51">
+        <v>91.013503026540434</v>
       </c>
       <c r="C51">
-        <v>91.013503026540434</v>
+        <v>2785</v>
       </c>
       <c r="D51">
-        <v>2785</v>
+        <v>40.65</v>
       </c>
       <c r="E51">
-        <v>40.65</v>
+        <v>1.5</v>
       </c>
       <c r="F51">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G51">
         <v>40.766001129150389</v>
@@ -7008,13 +7034,13 @@
         <v>126.32</v>
       </c>
       <c r="AF51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AI51">
         <v>1.03</v>
@@ -7030,23 +7056,23 @@
       </c>
     </row>
     <row r="52" spans="1:38">
-      <c r="A52" s="1">
-        <v>10</v>
-      </c>
-      <c r="B52" t="s">
-        <v>163</v>
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52">
+        <v>91.323917429768741</v>
       </c>
       <c r="C52">
-        <v>91.323917429768741</v>
+        <v>880</v>
       </c>
       <c r="D52">
-        <v>880</v>
+        <v>20.9</v>
       </c>
       <c r="E52">
-        <v>20.9</v>
+        <v>2.29</v>
       </c>
       <c r="F52">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="G52">
         <v>20.361999893188479</v>
@@ -7112,22 +7138,22 @@
         <v>15.63</v>
       </c>
       <c r="AC52">
+        <v>-15.38</v>
+      </c>
+      <c r="AD52">
         <v>23.81</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>5</v>
       </c>
-      <c r="AE52">
-        <v>25</v>
-      </c>
       <c r="AF52" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AG52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AI52">
         <v>0.89</v>
@@ -7143,23 +7169,23 @@
       </c>
     </row>
     <row r="53" spans="1:38">
-      <c r="A53" s="1">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>165</v>
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53">
+        <v>96.903616327797621</v>
       </c>
       <c r="C53">
-        <v>96.903616327797621</v>
+        <v>1235</v>
       </c>
       <c r="D53">
-        <v>1235</v>
+        <v>165.16</v>
       </c>
       <c r="E53">
-        <v>165.16</v>
+        <v>2.31</v>
       </c>
       <c r="F53">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>163.00200195312499</v>
@@ -7234,272 +7260,273 @@
         <v>-18.18</v>
       </c>
       <c r="AF53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AI53">
-        <v>27.45</v>
+        <v>27.47</v>
       </c>
       <c r="AJ53">
         <v>11.37</v>
       </c>
       <c r="AK53">
-        <v>-58.58</v>
+        <v>-58.61</v>
       </c>
       <c r="AL53">
         <v>25.571982035118332</v>
       </c>
     </row>
     <row r="54" spans="1:38">
-      <c r="A54" s="2">
-        <v>64</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="A54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="4">
         <v>90.400434580164529</v>
       </c>
-      <c r="D54" s="3">
+      <c r="C54" s="4">
         <v>1970</v>
       </c>
-      <c r="E54" s="3">
+      <c r="D54" s="4">
         <v>157.06</v>
       </c>
-      <c r="F54" s="3">
+      <c r="E54" s="4">
         <v>0.9</v>
       </c>
-      <c r="G54" s="3">
+      <c r="F54" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="G54" s="4">
         <v>155.21799621582031</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="4">
         <v>155.21549911499019</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="4">
         <v>151.08600006103521</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="4">
         <v>133.7566998672485</v>
       </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="K54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="4">
         <v>1.03</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
-        <v>1</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
         <v>3.333333333333333</v>
       </c>
-      <c r="S54" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T54" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U54" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="S54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" s="4">
         <v>89.22</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="4">
         <v>159.1</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="4">
         <v>21.16</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="4">
         <v>-17.61</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="4">
         <v>24.16</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="4">
         <v>57.84</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="4">
         <v>9.6300000000000008</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="4">
         <v>14.35</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="4">
         <v>25.15</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AE54" s="4">
         <v>157.38999999999999</v>
       </c>
-      <c r="AF54" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH54" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI54" s="3">
-        <v>3.18</v>
-      </c>
-      <c r="AJ54" s="3">
+      <c r="AF54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="AJ54" s="4">
         <v>9.5299999999999994</v>
       </c>
-      <c r="AK54" s="3">
-        <v>199.69</v>
-      </c>
-      <c r="AL54" s="3">
+      <c r="AK54" s="4">
+        <v>198.75</v>
+      </c>
+      <c r="AL54" s="4">
         <v>24.33886933881135</v>
       </c>
     </row>
     <row r="55" spans="1:38">
-      <c r="A55" s="1">
-        <v>114</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55">
+      <c r="A55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="4">
         <v>92.371566040664291</v>
       </c>
-      <c r="D55">
+      <c r="C55" s="4">
         <v>2351</v>
       </c>
-      <c r="E55">
+      <c r="D55" s="4">
         <v>37.409999999999997</v>
       </c>
-      <c r="F55">
+      <c r="E55" s="4">
         <v>1.93</v>
       </c>
-      <c r="G55">
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4">
         <v>36.673999786376953</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>36.641500282287588</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>36.927599945068359</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>31.515799932479862</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
+      <c r="K55" s="4">
+        <v>1</v>
+      </c>
+      <c r="L55" s="4">
         <v>0.99</v>
       </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55" t="b">
-        <v>0</v>
-      </c>
-      <c r="T55" t="b">
-        <v>1</v>
-      </c>
-      <c r="U55" t="b">
-        <v>0</v>
-      </c>
-      <c r="V55">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
         <v>20.92</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="4">
         <v>40.049999999999997</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="4">
         <v>5.82</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="4">
         <v>-15.58</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="4">
         <v>45.33</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="4">
         <v>170.33</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="4">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AC55">
+      <c r="AC55" s="4">
         <v>76.47</v>
       </c>
-      <c r="AD55">
+      <c r="AD55" s="4">
         <v>-83.96</v>
       </c>
-      <c r="AE55">
+      <c r="AE55" s="4">
         <v>581.82000000000005</v>
       </c>
-      <c r="AF55" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI55">
+      <c r="AF55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI55" s="4">
         <v>0.13</v>
       </c>
-      <c r="AJ55">
+      <c r="AJ55" s="4">
         <v>0.69</v>
       </c>
-      <c r="AK55">
+      <c r="AK55" s="4">
         <v>430.77</v>
       </c>
-      <c r="AL55">
+      <c r="AL55" s="4">
         <v>24.09090546862738</v>
       </c>
     </row>
     <row r="56" spans="1:38">
-      <c r="A56" s="1">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>171</v>
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56">
+        <v>92.371566040664291</v>
       </c>
       <c r="C56">
-        <v>92.371566040664291</v>
+        <v>2076</v>
       </c>
       <c r="D56">
-        <v>2076</v>
+        <v>106.94</v>
       </c>
       <c r="E56">
-        <v>106.94</v>
+        <v>2.1</v>
       </c>
       <c r="F56">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="G56">
         <v>104.5140014648437</v>
@@ -7574,13 +7601,13 @@
         <v>-5.26</v>
       </c>
       <c r="AF56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI56">
         <v>0.63</v>
@@ -7596,23 +7623,23 @@
       </c>
     </row>
     <row r="57" spans="1:38">
-      <c r="A57" s="1">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>172</v>
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57">
+        <v>95.095452428992715</v>
       </c>
       <c r="C57">
-        <v>95.095452428992715</v>
+        <v>1544</v>
       </c>
       <c r="D57">
-        <v>1544</v>
+        <v>25.48</v>
       </c>
       <c r="E57">
-        <v>25.48</v>
+        <v>2.69</v>
       </c>
       <c r="F57">
-        <v>2.69</v>
+        <v>5.22</v>
       </c>
       <c r="G57">
         <v>24.944000244140621</v>
@@ -7687,13 +7714,13 @@
         <v>50</v>
       </c>
       <c r="AF57" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH57" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AI57">
         <v>0.46</v>
@@ -7709,23 +7736,23 @@
       </c>
     </row>
     <row r="58" spans="1:38">
-      <c r="A58" s="1">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>174</v>
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58">
+        <v>93.504578612447617</v>
       </c>
       <c r="C58">
-        <v>93.504578612447617</v>
+        <v>579</v>
       </c>
       <c r="D58">
-        <v>579</v>
+        <v>9.76</v>
       </c>
       <c r="E58">
-        <v>9.76</v>
+        <v>1.87</v>
       </c>
       <c r="F58">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G58">
         <v>9.844000053405761</v>
@@ -7800,13 +7827,13 @@
         <v>160</v>
       </c>
       <c r="AF58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI58">
         <v>0.24</v>
@@ -7822,23 +7849,23 @@
       </c>
     </row>
     <row r="59" spans="1:38">
-      <c r="A59" s="1">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>176</v>
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59">
+        <v>92.162036318485178</v>
       </c>
       <c r="C59">
-        <v>92.162036318485178</v>
+        <v>1384</v>
       </c>
       <c r="D59">
-        <v>1384</v>
+        <v>11.18</v>
       </c>
       <c r="E59">
-        <v>11.18</v>
+        <v>2.72</v>
       </c>
       <c r="F59">
-        <v>2.72</v>
+        <v>3.49</v>
       </c>
       <c r="G59">
         <v>11.079999923706049</v>
@@ -7892,7 +7919,7 @@
         <v>1.25</v>
       </c>
       <c r="Y59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z59">
         <v>8.82</v>
@@ -7913,13 +7940,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI59">
         <v>0.38</v>
@@ -7935,23 +7962,23 @@
       </c>
     </row>
     <row r="60" spans="1:38">
-      <c r="A60" s="1">
-        <v>89</v>
-      </c>
-      <c r="B60" t="s">
-        <v>177</v>
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60">
+        <v>98.067670339903771</v>
       </c>
       <c r="C60">
-        <v>98.067670339903771</v>
+        <v>1509</v>
       </c>
       <c r="D60">
-        <v>1509</v>
+        <v>47.33</v>
       </c>
       <c r="E60">
-        <v>47.33</v>
+        <v>2.39</v>
       </c>
       <c r="F60">
-        <v>2.39</v>
+        <v>2.85</v>
       </c>
       <c r="G60">
         <v>45.826000213623047</v>
@@ -8026,13 +8053,13 @@
         <v>193.1</v>
       </c>
       <c r="AF60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI60">
         <v>2.72</v>
@@ -8048,23 +8075,23 @@
       </c>
     </row>
     <row r="61" spans="1:38">
-      <c r="A61" s="1">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>179</v>
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61">
+        <v>95.956852397951266</v>
       </c>
       <c r="C61">
-        <v>95.956852397951266</v>
+        <v>2932</v>
       </c>
       <c r="D61">
-        <v>2932</v>
+        <v>385.16</v>
       </c>
       <c r="E61">
-        <v>385.16</v>
+        <v>3.45</v>
       </c>
       <c r="F61">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G61">
         <v>365.80399780273439</v>
@@ -8139,13 +8166,13 @@
         <v>-12.63</v>
       </c>
       <c r="AF61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI61">
         <v>11.9</v>
@@ -8161,136 +8188,137 @@
       </c>
     </row>
     <row r="62" spans="1:38">
-      <c r="A62" s="1">
-        <v>93</v>
-      </c>
-      <c r="B62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62">
+      <c r="A62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="4">
         <v>93.1864038491386</v>
       </c>
-      <c r="D62">
+      <c r="C62" s="4">
         <v>1120</v>
       </c>
-      <c r="E62">
+      <c r="D62" s="4">
         <v>174.05</v>
       </c>
-      <c r="F62">
+      <c r="E62" s="4">
         <v>1.85</v>
       </c>
-      <c r="G62">
+      <c r="F62" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="G62" s="4">
         <v>170.46000061035161</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>164.6040008544922</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>160.50019989013671</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="4">
         <v>140.9698497390747</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="4">
         <v>1.04</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="4">
         <v>1.06</v>
       </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62" t="b">
-        <v>0</v>
-      </c>
-      <c r="T62" t="b">
-        <v>1</v>
-      </c>
-      <c r="U62" t="b">
-        <v>1</v>
-      </c>
-      <c r="V62">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>0</v>
+      </c>
+      <c r="S62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" s="4">
         <v>78.349999999999994</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="4">
         <v>174.48</v>
       </c>
-      <c r="X62">
+      <c r="X62" s="4">
         <v>44.8</v>
       </c>
-      <c r="Y62">
+      <c r="Y62" s="4">
         <v>-6.87</v>
       </c>
-      <c r="Z62">
+      <c r="Z62" s="4">
         <v>69.94</v>
       </c>
-      <c r="AA62">
+      <c r="AA62" s="4">
         <v>78.459999999999994</v>
       </c>
-      <c r="AB62">
+      <c r="AB62" s="4">
         <v>53.38</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="4">
         <v>137.13999999999999</v>
       </c>
-      <c r="AD62">
+      <c r="AD62" s="4">
         <v>28.44</v>
       </c>
-      <c r="AE62">
+      <c r="AE62" s="4">
         <v>-72.34</v>
       </c>
-      <c r="AF62" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI62">
-        <v>9.18</v>
-      </c>
-      <c r="AJ62">
+      <c r="AF62" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI62" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="AJ62" s="4">
         <v>13.4</v>
       </c>
-      <c r="AK62">
-        <v>45.97</v>
-      </c>
-      <c r="AL62">
+      <c r="AK62" s="4">
+        <v>46.13</v>
+      </c>
+      <c r="AL62" s="4">
         <v>22.503298285108499</v>
       </c>
     </row>
     <row r="63" spans="1:38">
-      <c r="A63" s="1">
-        <v>119</v>
-      </c>
-      <c r="B63" t="s">
-        <v>182</v>
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63">
+        <v>92.371566040664291</v>
       </c>
       <c r="C63">
-        <v>92.371566040664291</v>
+        <v>2167</v>
       </c>
       <c r="D63">
-        <v>2167</v>
+        <v>47.4</v>
       </c>
       <c r="E63">
-        <v>47.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F63">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="G63">
         <v>47.505999755859378</v>
@@ -8344,7 +8372,7 @@
         <v>4.51</v>
       </c>
       <c r="Y63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z63">
         <v>29.31</v>
@@ -8365,13 +8393,13 @@
         <v>57.78</v>
       </c>
       <c r="AF63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AI63">
         <v>4.34</v>
@@ -8387,23 +8415,23 @@
       </c>
     </row>
     <row r="64" spans="1:38">
-      <c r="A64" s="1">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>185</v>
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64">
+        <v>90.121061617259045</v>
       </c>
       <c r="C64">
-        <v>90.121061617259045</v>
+        <v>793</v>
       </c>
       <c r="D64">
-        <v>793</v>
+        <v>83.13</v>
       </c>
       <c r="E64">
-        <v>83.13</v>
+        <v>1.54</v>
       </c>
       <c r="F64">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="G64">
         <v>82.219999694824224</v>
@@ -8457,7 +8485,7 @@
         <v>41.65</v>
       </c>
       <c r="Y64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z64">
         <v>66.48</v>
@@ -8469,22 +8497,22 @@
         <v>3.09</v>
       </c>
       <c r="AC64">
+        <v>35.71</v>
+      </c>
+      <c r="AD64">
         <v>176.09</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>-355.56</v>
       </c>
-      <c r="AE64">
-        <v>-45.45</v>
-      </c>
       <c r="AF64" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AG64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI64">
         <v>1.1599999999999999</v>
@@ -8500,23 +8528,23 @@
       </c>
     </row>
     <row r="65" spans="1:38">
-      <c r="A65" s="1">
-        <v>74</v>
-      </c>
-      <c r="B65" t="s">
-        <v>186</v>
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65">
+        <v>96.344870401986654</v>
       </c>
       <c r="C65">
-        <v>96.344870401986654</v>
+        <v>1312</v>
       </c>
       <c r="D65">
-        <v>1312</v>
+        <v>15.22</v>
       </c>
       <c r="E65">
-        <v>15.22</v>
+        <v>1.63</v>
       </c>
       <c r="F65">
-        <v>1.63</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G65">
         <v>15.07600021362305</v>
@@ -8591,13 +8619,13 @@
         <v>50</v>
       </c>
       <c r="AF65" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI65">
         <v>0.25</v>
@@ -8613,23 +8641,23 @@
       </c>
     </row>
     <row r="66" spans="1:38">
-      <c r="A66" s="1">
-        <v>102</v>
-      </c>
-      <c r="B66" t="s">
-        <v>187</v>
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66">
+        <v>94.83936054632936</v>
       </c>
       <c r="C66">
-        <v>94.83936054632936</v>
+        <v>2574</v>
       </c>
       <c r="D66">
-        <v>2574</v>
+        <v>148.16</v>
       </c>
       <c r="E66">
-        <v>148.16</v>
+        <v>3.75</v>
       </c>
       <c r="F66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <v>137.97600097656249</v>
@@ -8650,7 +8678,7 @@
         <v>1.19</v>
       </c>
       <c r="M66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -8707,45 +8735,45 @@
         <v>2.34</v>
       </c>
       <c r="AF66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI66">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="AJ66">
         <v>6.08</v>
       </c>
       <c r="AK66">
-        <v>16.920000000000002</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="AL66">
         <v>22.121409315249249</v>
       </c>
     </row>
     <row r="67" spans="1:38">
-      <c r="A67" s="1">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>189</v>
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67">
+        <v>94.171969579388488</v>
       </c>
       <c r="C67">
-        <v>94.171969579388488</v>
+        <v>2081</v>
       </c>
       <c r="D67">
-        <v>2081</v>
+        <v>271.39</v>
       </c>
       <c r="E67">
-        <v>271.39</v>
+        <v>1.6</v>
       </c>
       <c r="F67">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="G67">
         <v>271.98800048828127</v>
@@ -8817,45 +8845,45 @@
         <v>369.33</v>
       </c>
       <c r="AF67" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AI67">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="AJ67">
         <v>9.6199999999999992</v>
       </c>
       <c r="AK67">
-        <v>45.1</v>
+        <v>45.32</v>
       </c>
       <c r="AL67">
         <v>21.838242516794171</v>
       </c>
     </row>
     <row r="68" spans="1:38">
-      <c r="A68" s="1">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>192</v>
+      <c r="A68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68">
+        <v>94.404780381809715</v>
       </c>
       <c r="C68">
-        <v>94.404780381809715</v>
+        <v>2323</v>
       </c>
       <c r="D68">
-        <v>2323</v>
+        <v>393.29</v>
       </c>
       <c r="E68">
-        <v>393.29</v>
+        <v>1.97</v>
       </c>
       <c r="F68">
-        <v>1.97</v>
+        <v>3.04</v>
       </c>
       <c r="G68">
         <v>386.87600097656252</v>
@@ -8930,13 +8958,13 @@
         <v>-2.5299999999999998</v>
       </c>
       <c r="AF68" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI68">
         <v>3.78</v>
@@ -8952,23 +8980,23 @@
       </c>
     </row>
     <row r="69" spans="1:38">
-      <c r="A69" s="1">
-        <v>55</v>
-      </c>
-      <c r="B69" t="s">
-        <v>193</v>
+      <c r="A69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69">
+        <v>92.371566040664291</v>
       </c>
       <c r="C69">
-        <v>92.371566040664291</v>
+        <v>2022</v>
       </c>
       <c r="D69">
-        <v>2022</v>
+        <v>107.22</v>
       </c>
       <c r="E69">
-        <v>107.22</v>
+        <v>1.75</v>
       </c>
       <c r="F69">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="G69">
         <v>104.84800109863281</v>
@@ -9022,7 +9050,7 @@
         <v>4.82</v>
       </c>
       <c r="Y69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z69">
         <v>34.49</v>
@@ -9043,13 +9071,13 @@
         <v>11.36</v>
       </c>
       <c r="AF69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AI69">
         <v>4.0599999999999996</v>
@@ -9065,23 +9093,23 @@
       </c>
     </row>
     <row r="70" spans="1:38">
-      <c r="A70" s="1">
-        <v>36</v>
-      </c>
-      <c r="B70" t="s">
-        <v>195</v>
+      <c r="A70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70">
+        <v>95.095452428992715</v>
       </c>
       <c r="C70">
-        <v>95.095452428992715</v>
+        <v>2688</v>
       </c>
       <c r="D70">
-        <v>2688</v>
+        <v>435.6</v>
       </c>
       <c r="E70">
-        <v>435.6</v>
+        <v>2.77</v>
       </c>
       <c r="F70">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="G70">
         <v>417.25800170898441</v>
@@ -9156,158 +9184,159 @@
         <v>24.79</v>
       </c>
       <c r="AF70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI70">
-        <v>17.46</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="AJ70">
         <v>20.82</v>
       </c>
       <c r="AK70">
-        <v>19.239999999999998</v>
+        <v>19.52</v>
       </c>
       <c r="AL70">
         <v>20.894043432663999</v>
       </c>
     </row>
     <row r="71" spans="1:38">
-      <c r="A71" s="1">
-        <v>51</v>
-      </c>
-      <c r="B71" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71">
+      <c r="A71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="4">
         <v>91.013503026540434</v>
       </c>
-      <c r="D71">
+      <c r="C71" s="4">
         <v>2817</v>
       </c>
-      <c r="E71">
+      <c r="D71" s="4">
         <v>138.55000000000001</v>
       </c>
-      <c r="F71">
+      <c r="E71" s="4">
         <v>1.18</v>
       </c>
-      <c r="G71">
+      <c r="F71" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="G71" s="4">
         <v>136.49000244140629</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>134.76400070190431</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>131.84900009155271</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="4">
         <v>113.3959002685547</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="4">
         <v>1.01</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="4">
         <v>1.04</v>
       </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71" t="b">
-        <v>0</v>
-      </c>
-      <c r="T71" t="b">
-        <v>1</v>
-      </c>
-      <c r="U71" t="b">
-        <v>0</v>
-      </c>
-      <c r="V71">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>0</v>
+      </c>
+      <c r="S71" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V71" s="4">
         <v>74.650000000000006</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="4">
         <v>140.86000000000001</v>
       </c>
-      <c r="X71">
+      <c r="X71" s="4">
         <v>3.48</v>
       </c>
-      <c r="Y71">
+      <c r="Y71" s="4">
         <v>32.83</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="4">
         <v>6.96</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" s="4">
         <v>398.82</v>
       </c>
-      <c r="AB71">
+      <c r="AB71" s="4">
         <v>43.09</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="4">
         <v>90.48</v>
       </c>
-      <c r="AD71">
+      <c r="AD71" s="4">
         <v>-7.69</v>
       </c>
-      <c r="AE71">
+      <c r="AE71" s="4">
         <v>124.69</v>
       </c>
-      <c r="AF71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI71">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="AJ71">
+      <c r="AF71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI71" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AJ71" s="4">
         <v>3.92</v>
       </c>
-      <c r="AK71">
-        <v>-60.6</v>
-      </c>
-      <c r="AL71">
+      <c r="AK71" s="4">
+        <v>-60.64</v>
+      </c>
+      <c r="AL71" s="4">
         <v>20.81150075562514</v>
       </c>
     </row>
     <row r="72" spans="1:38">
-      <c r="A72" s="1">
-        <v>120</v>
-      </c>
-      <c r="B72" t="s">
-        <v>197</v>
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72">
+        <v>90.400434580164529</v>
       </c>
       <c r="C72">
-        <v>90.400434580164529</v>
+        <v>1257</v>
       </c>
       <c r="D72">
-        <v>1257</v>
+        <v>179.22</v>
       </c>
       <c r="E72">
-        <v>179.22</v>
+        <v>1.35</v>
       </c>
       <c r="F72">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="G72">
         <v>175.1000030517578</v>
@@ -9382,13 +9411,13 @@
         <v>-10.45</v>
       </c>
       <c r="AF72" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AI72">
         <v>5.7</v>
@@ -9404,23 +9433,23 @@
       </c>
     </row>
     <row r="73" spans="1:38">
-      <c r="A73" s="1">
-        <v>69</v>
-      </c>
-      <c r="B73" t="s">
-        <v>199</v>
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73">
+        <v>93.822753375756633</v>
       </c>
       <c r="C73">
-        <v>93.822753375756633</v>
+        <v>110</v>
       </c>
       <c r="D73">
-        <v>110</v>
+        <v>561.35</v>
       </c>
       <c r="E73">
-        <v>561.35</v>
+        <v>1.53</v>
       </c>
       <c r="F73">
-        <v>1.53</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G73">
         <v>545.6</v>
@@ -9495,45 +9524,45 @@
         <v>48.51</v>
       </c>
       <c r="AF73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AI73">
-        <v>19.57</v>
+        <v>19.53</v>
       </c>
       <c r="AJ73">
         <v>24.2</v>
       </c>
       <c r="AK73">
-        <v>23.66</v>
+        <v>23.91</v>
       </c>
       <c r="AL73">
         <v>20.363973699813709</v>
       </c>
     </row>
     <row r="74" spans="1:38">
-      <c r="A74" s="1">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>200</v>
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74">
+        <v>95.871488437063476</v>
       </c>
       <c r="C74">
-        <v>95.871488437063476</v>
+        <v>3286</v>
       </c>
       <c r="D74">
-        <v>3286</v>
+        <v>95.89</v>
       </c>
       <c r="E74">
-        <v>95.89</v>
+        <v>6.66</v>
       </c>
       <c r="F74">
-        <v>6.66</v>
+        <v>4.34</v>
       </c>
       <c r="G74">
         <v>91.872000122070318</v>
@@ -9608,13 +9637,13 @@
         <v>-56.84</v>
       </c>
       <c r="AF74" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="AG74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI74">
         <v>3.19</v>
@@ -9630,23 +9659,23 @@
       </c>
     </row>
     <row r="75" spans="1:38">
-      <c r="A75" s="1">
-        <v>94</v>
-      </c>
-      <c r="B75" t="s">
-        <v>201</v>
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75">
+        <v>95.095452428992715</v>
       </c>
       <c r="C75">
-        <v>95.095452428992715</v>
+        <v>2345</v>
       </c>
       <c r="D75">
-        <v>2345</v>
+        <v>72.53</v>
       </c>
       <c r="E75">
-        <v>72.53</v>
+        <v>3.7</v>
       </c>
       <c r="F75">
-        <v>3.7</v>
+        <v>3.31</v>
       </c>
       <c r="G75">
         <v>71.748001098632812</v>
@@ -9721,13 +9750,13 @@
         <v>-68.33</v>
       </c>
       <c r="AF75" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AG75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI75">
         <v>1.34</v>
@@ -9743,23 +9772,23 @@
       </c>
     </row>
     <row r="76" spans="1:38">
-      <c r="A76" s="1">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>203</v>
+      <c r="A76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76">
+        <v>93.1864038491386</v>
       </c>
       <c r="C76">
-        <v>93.1864038491386</v>
+        <v>643</v>
       </c>
       <c r="D76">
-        <v>643</v>
+        <v>701.03</v>
       </c>
       <c r="E76">
-        <v>701.03</v>
+        <v>1.57</v>
       </c>
       <c r="F76">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="G76">
         <v>699.84599609375005</v>
@@ -9834,45 +9863,45 @@
         <v>-42.89</v>
       </c>
       <c r="AF76" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AI76">
-        <v>15.99</v>
+        <v>15.98</v>
       </c>
       <c r="AJ76">
         <v>23</v>
       </c>
       <c r="AK76">
-        <v>43.84</v>
+        <v>43.93</v>
       </c>
       <c r="AL76">
         <v>19.821784327617831</v>
       </c>
     </row>
     <row r="77" spans="1:38">
-      <c r="A77" s="1">
-        <v>85</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77">
+        <v>98.704019866521804</v>
       </c>
       <c r="C77">
-        <v>98.704019866521804</v>
+        <v>3327</v>
       </c>
       <c r="D77">
-        <v>3327</v>
+        <v>35.68</v>
       </c>
       <c r="E77">
-        <v>35.68</v>
+        <v>2.69</v>
       </c>
       <c r="F77">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="G77">
         <v>35.173999786376953</v>
@@ -9947,13 +9976,13 @@
         <v>0</v>
       </c>
       <c r="AF77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AI77">
         <v>0.64</v>
@@ -9969,137 +9998,137 @@
       </c>
     </row>
     <row r="78" spans="1:38">
-      <c r="A78" s="2">
-        <v>75</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="A78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" s="2">
         <v>96.290547881421702</v>
       </c>
-      <c r="D78" s="3">
+      <c r="C78" s="2">
         <v>747</v>
       </c>
-      <c r="E78" s="3">
+      <c r="D78" s="2">
         <v>87.09</v>
       </c>
-      <c r="F78" s="3">
+      <c r="E78" s="2">
         <v>2.68</v>
       </c>
-      <c r="G78" s="3">
+      <c r="F78" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G78" s="2">
         <v>82.593998718261716</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <v>81.120499801635745</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="2">
         <v>78.498599853515628</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>68.724999809265142</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>1.02</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="2">
         <v>1.05</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3">
-        <v>0</v>
-      </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T78" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V78" s="3">
+      <c r="M78" s="2"/>
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" s="2">
         <v>36.61</v>
       </c>
-      <c r="W78" s="3">
+      <c r="W78" s="2">
         <v>87.58</v>
       </c>
-      <c r="X78" s="3">
+      <c r="X78" s="2">
         <v>17.97</v>
       </c>
-      <c r="Y78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z78" s="3">
+      <c r="Y78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z78" s="2">
         <v>12.4</v>
       </c>
-      <c r="AA78" s="3">
+      <c r="AA78" s="2">
         <v>168.61</v>
       </c>
-      <c r="AB78" s="3">
+      <c r="AB78" s="2">
         <v>59.64</v>
       </c>
-      <c r="AC78" s="3">
+      <c r="AC78" s="2">
         <v>47.03</v>
       </c>
-      <c r="AD78" s="3">
+      <c r="AD78" s="2">
         <v>16.829999999999998</v>
       </c>
-      <c r="AE78" s="3">
+      <c r="AE78" s="2">
         <v>42.25</v>
       </c>
-      <c r="AF78" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG78" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH78" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI78" s="3">
+      <c r="AF78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI78" s="2">
         <v>9.1199999999999992</v>
       </c>
-      <c r="AJ78" s="3">
+      <c r="AJ78" s="2">
         <v>6.18</v>
       </c>
-      <c r="AK78" s="3">
+      <c r="AK78" s="2">
         <v>-32.24</v>
       </c>
-      <c r="AL78" s="3">
+      <c r="AL78" s="2">
         <v>19.21621155603588</v>
       </c>
     </row>
     <row r="79" spans="1:38">
-      <c r="A79" s="1">
-        <v>90</v>
-      </c>
-      <c r="B79" t="s">
-        <v>210</v>
+      <c r="A79" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79">
+        <v>92.82166692534534</v>
       </c>
       <c r="C79">
-        <v>92.82166692534534</v>
+        <v>829</v>
       </c>
       <c r="D79">
-        <v>829</v>
+        <v>99.89</v>
       </c>
       <c r="E79">
-        <v>99.89</v>
+        <v>1.5</v>
       </c>
       <c r="F79">
-        <v>1.5</v>
+        <v>2.77</v>
       </c>
       <c r="G79">
         <v>98.689999389648449</v>
@@ -10174,13 +10203,13 @@
         <v>-4.4400000000000004</v>
       </c>
       <c r="AF79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH79" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AI79">
         <v>0.45</v>
@@ -10196,23 +10225,23 @@
       </c>
     </row>
     <row r="80" spans="1:38">
-      <c r="A80" s="1">
-        <v>61</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
+      <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80">
+        <v>93.000155207201615</v>
       </c>
       <c r="C80">
-        <v>93.000155207201615</v>
+        <v>2127</v>
       </c>
       <c r="D80">
-        <v>2127</v>
+        <v>90.76</v>
       </c>
       <c r="E80">
-        <v>90.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F80">
-        <v>2.2799999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G80">
         <v>89.698001098632815</v>
@@ -10266,7 +10295,7 @@
         <v>5.14</v>
       </c>
       <c r="Y80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z80">
         <v>15.66</v>
@@ -10287,13 +10316,13 @@
         <v>-85.71</v>
       </c>
       <c r="AF80" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH80" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AI80">
         <v>3.49</v>
@@ -10309,23 +10338,23 @@
       </c>
     </row>
     <row r="81" spans="1:38">
-      <c r="A81" s="1">
-        <v>26</v>
-      </c>
-      <c r="B81" t="s">
-        <v>213</v>
+      <c r="A81" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81">
+        <v>90.695328263231417</v>
       </c>
       <c r="C81">
-        <v>90.695328263231417</v>
+        <v>2445</v>
       </c>
       <c r="D81">
-        <v>2445</v>
+        <v>90.72</v>
       </c>
       <c r="E81">
-        <v>90.72</v>
+        <v>1.83</v>
       </c>
       <c r="F81">
-        <v>1.83</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G81">
         <v>93.233999633789068</v>
@@ -10400,13 +10429,13 @@
         <v>-83.57</v>
       </c>
       <c r="AF81" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH81" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI81">
         <v>10.56</v>
@@ -10422,23 +10451,23 @@
       </c>
     </row>
     <row r="82" spans="1:38">
-      <c r="A82" s="1">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>215</v>
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82">
+        <v>91.323917429768741</v>
       </c>
       <c r="C82">
-        <v>91.323917429768741</v>
+        <v>600</v>
       </c>
       <c r="D82">
-        <v>600</v>
+        <v>268.99</v>
       </c>
       <c r="E82">
-        <v>268.99</v>
+        <v>1.69</v>
       </c>
       <c r="F82">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="G82">
         <v>265.28199462890632</v>
@@ -10513,45 +10542,45 @@
         <v>-20.3</v>
       </c>
       <c r="AF82" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH82" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI82">
-        <v>13.41</v>
+        <v>13.4</v>
       </c>
       <c r="AJ82">
         <v>14.93</v>
       </c>
       <c r="AK82">
-        <v>11.33</v>
+        <v>11.42</v>
       </c>
       <c r="AL82">
         <v>17.956197834768261</v>
       </c>
     </row>
     <row r="83" spans="1:38">
-      <c r="A83" s="1">
-        <v>49</v>
-      </c>
-      <c r="B83" t="s">
-        <v>217</v>
+      <c r="A83" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83">
+        <v>95.646437994722959</v>
       </c>
       <c r="C83">
-        <v>95.646437994722959</v>
+        <v>913</v>
       </c>
       <c r="D83">
-        <v>913</v>
+        <v>97.45</v>
       </c>
       <c r="E83">
-        <v>97.45</v>
+        <v>1.51</v>
       </c>
       <c r="F83">
-        <v>1.51</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G83">
         <v>95.85799865722656</v>
@@ -10626,13 +10655,13 @@
         <v>26.67</v>
       </c>
       <c r="AF83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG83" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI83">
         <v>2.25</v>
@@ -10648,23 +10677,23 @@
       </c>
     </row>
     <row r="84" spans="1:38">
-      <c r="A84" s="1">
-        <v>58</v>
-      </c>
-      <c r="B84" t="s">
-        <v>218</v>
+      <c r="A84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84">
+        <v>93.349371410833456</v>
       </c>
       <c r="C84">
-        <v>93.349371410833456</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>40</v>
+        <v>9.56</v>
       </c>
       <c r="E84">
-        <v>9.56</v>
+        <v>2.99</v>
       </c>
       <c r="F84">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
       <c r="G84">
         <v>9.3960000991821282</v>
@@ -10715,10 +10744,10 @@
         <v>10.1</v>
       </c>
       <c r="X84">
-        <v>11.75</v>
+        <v>11.79</v>
       </c>
       <c r="Y84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z84">
         <v>39.39</v>
@@ -10739,13 +10768,13 @@
         <v>-33.33</v>
       </c>
       <c r="AF84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI84">
         <v>0.4</v>
@@ -10761,23 +10790,23 @@
       </c>
     </row>
     <row r="85" spans="1:38">
-      <c r="A85" s="1">
-        <v>105</v>
-      </c>
-      <c r="B85" t="s">
-        <v>219</v>
+      <c r="A85" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85">
+        <v>94.272854260437683</v>
       </c>
       <c r="C85">
-        <v>94.272854260437683</v>
+        <v>1443</v>
       </c>
       <c r="D85">
-        <v>1443</v>
+        <v>384.93</v>
       </c>
       <c r="E85">
-        <v>384.93</v>
+        <v>1.51</v>
       </c>
       <c r="F85">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="G85">
         <v>376.28000488281248</v>
@@ -10852,45 +10881,45 @@
         <v>-19.71</v>
       </c>
       <c r="AF85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI85">
-        <v>10.220000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="AJ85">
         <v>12.36</v>
       </c>
       <c r="AK85">
-        <v>20.94</v>
+        <v>20.7</v>
       </c>
       <c r="AL85">
         <v>17.341328404498991</v>
       </c>
     </row>
     <row r="86" spans="1:38">
-      <c r="A86" s="1">
-        <v>113</v>
-      </c>
-      <c r="B86" t="s">
-        <v>220</v>
+      <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86">
+        <v>92.596616483004809</v>
       </c>
       <c r="C86">
-        <v>92.596616483004809</v>
+        <v>5126</v>
       </c>
       <c r="D86">
-        <v>5126</v>
+        <v>44.31</v>
       </c>
       <c r="E86">
-        <v>44.31</v>
+        <v>2.29</v>
       </c>
       <c r="F86">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="G86">
         <v>43.636000823974612</v>
@@ -10965,13 +10994,13 @@
         <v>-9.09</v>
       </c>
       <c r="AF86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AI86">
         <v>4.8499999999999996</v>
@@ -10987,23 +11016,23 @@
       </c>
     </row>
     <row r="87" spans="1:38">
-      <c r="A87" s="1">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>222</v>
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87">
+        <v>92.596616483004809</v>
       </c>
       <c r="C87">
-        <v>92.596616483004809</v>
+        <v>3444</v>
       </c>
       <c r="D87">
-        <v>3444</v>
+        <v>95.01</v>
       </c>
       <c r="E87">
-        <v>95.01</v>
+        <v>1.44</v>
       </c>
       <c r="F87">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="G87">
         <v>96.437998962402347</v>
@@ -11078,13 +11107,13 @@
         <v>38.67</v>
       </c>
       <c r="AF87" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI87">
         <v>3.8</v>
@@ -11100,23 +11129,23 @@
       </c>
     </row>
     <row r="88" spans="1:38">
-      <c r="A88" s="1">
-        <v>33</v>
-      </c>
-      <c r="B88" t="s">
-        <v>223</v>
+      <c r="A88" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88">
+        <v>90.400434580164529</v>
       </c>
       <c r="C88">
-        <v>90.400434580164529</v>
+        <v>570</v>
       </c>
       <c r="D88">
-        <v>570</v>
+        <v>13.43</v>
       </c>
       <c r="E88">
-        <v>13.43</v>
+        <v>1.87</v>
       </c>
       <c r="F88">
-        <v>1.87</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G88">
         <v>13.460000228881841</v>
@@ -11191,13 +11220,13 @@
         <v>306.67</v>
       </c>
       <c r="AF88" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI88">
         <v>0.08</v>
@@ -11213,23 +11242,23 @@
       </c>
     </row>
     <row r="89" spans="1:38">
-      <c r="A89" s="1">
-        <v>107</v>
-      </c>
-      <c r="B89" t="s">
-        <v>224</v>
+      <c r="A89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89">
+        <v>94.513425422939619</v>
       </c>
       <c r="C89">
-        <v>94.513425422939619</v>
+        <v>1507</v>
       </c>
       <c r="D89">
-        <v>1507</v>
+        <v>18.97</v>
       </c>
       <c r="E89">
-        <v>18.97</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F89">
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="G89">
         <v>18.884000015258788</v>
@@ -11304,13 +11333,13 @@
         <v>-37.04</v>
       </c>
       <c r="AF89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI89">
         <v>1.1299999999999999</v>
@@ -11326,23 +11355,23 @@
       </c>
     </row>
     <row r="90" spans="1:38">
-      <c r="A90" s="1">
-        <v>27</v>
-      </c>
-      <c r="B90" t="s">
-        <v>225</v>
+      <c r="A90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90">
+        <v>91.323917429768741</v>
       </c>
       <c r="C90">
-        <v>91.323917429768741</v>
+        <v>2341</v>
       </c>
       <c r="D90">
-        <v>2341</v>
+        <v>39.07</v>
       </c>
       <c r="E90">
-        <v>39.07</v>
+        <v>1.99</v>
       </c>
       <c r="F90">
-        <v>1.99</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G90">
         <v>38.254000091552733</v>
@@ -11396,7 +11425,7 @@
         <v>1.26</v>
       </c>
       <c r="Y90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z90">
         <v>14.95</v>
@@ -11417,13 +11446,13 @@
         <v>60.53</v>
       </c>
       <c r="AF90" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH90" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AI90">
         <v>2.66</v>
@@ -11439,23 +11468,23 @@
       </c>
     </row>
     <row r="91" spans="1:38">
-      <c r="A91" s="1">
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
-        <v>227</v>
+      <c r="A91" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91">
+        <v>91.013503026540434</v>
       </c>
       <c r="C91">
-        <v>91.013503026540434</v>
+        <v>2446</v>
       </c>
       <c r="D91">
-        <v>2446</v>
+        <v>104.05</v>
       </c>
       <c r="E91">
-        <v>104.05</v>
+        <v>2.39</v>
       </c>
       <c r="F91">
-        <v>2.39</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G91">
         <v>99.154000854492182</v>
@@ -11521,22 +11550,22 @@
         <v>26.61</v>
       </c>
       <c r="AC91">
+        <v>33.33</v>
+      </c>
+      <c r="AD91">
         <v>-17.239999999999998</v>
       </c>
-      <c r="AD91">
+      <c r="AE91">
         <v>-1.69</v>
       </c>
-      <c r="AE91">
-        <v>5.36</v>
-      </c>
       <c r="AF91" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AG91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI91">
         <v>2.23</v>
@@ -11552,23 +11581,23 @@
       </c>
     </row>
     <row r="92" spans="1:38">
-      <c r="A92" s="1">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>228</v>
+      <c r="A92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92">
+        <v>91.013503026540434</v>
       </c>
       <c r="C92">
-        <v>91.013503026540434</v>
+        <v>1686</v>
       </c>
       <c r="D92">
-        <v>1686</v>
+        <v>25.76</v>
       </c>
       <c r="E92">
-        <v>25.76</v>
+        <v>1.92</v>
       </c>
       <c r="F92">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="G92">
         <v>25.391999816894529</v>
@@ -11622,7 +11651,7 @@
         <v>4</v>
       </c>
       <c r="Y92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z92">
         <v>36.35</v>
@@ -11643,45 +11672,45 @@
         <v>2.04</v>
       </c>
       <c r="AF92" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AG92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH92" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI92">
-        <v>4.2300000000000004</v>
+        <v>4.24</v>
       </c>
       <c r="AJ92">
         <v>5.57</v>
       </c>
       <c r="AK92">
-        <v>31.68</v>
+        <v>31.37</v>
       </c>
       <c r="AL92">
         <v>16.078119686650169</v>
       </c>
     </row>
     <row r="93" spans="1:38">
-      <c r="A93" s="1">
-        <v>28</v>
-      </c>
-      <c r="B93" t="s">
-        <v>230</v>
+      <c r="A93" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93">
+        <v>92.596616483004809</v>
       </c>
       <c r="C93">
-        <v>92.596616483004809</v>
+        <v>2717</v>
       </c>
       <c r="D93">
-        <v>2717</v>
+        <v>152.43</v>
       </c>
       <c r="E93">
-        <v>152.43</v>
+        <v>1.95</v>
       </c>
       <c r="F93">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="G93">
         <v>153.39399719238281</v>
@@ -11756,13 +11785,13 @@
         <v>140.65</v>
       </c>
       <c r="AF93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH93" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AI93">
         <v>4.1500000000000004</v>
@@ -11778,23 +11807,23 @@
       </c>
     </row>
     <row r="94" spans="1:38">
-      <c r="A94" s="1">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
-        <v>232</v>
+      <c r="A94" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94">
+        <v>90.695328263231417</v>
       </c>
       <c r="C94">
-        <v>90.695328263231417</v>
+        <v>2297</v>
       </c>
       <c r="D94">
-        <v>2297</v>
+        <v>64.08</v>
       </c>
       <c r="E94">
-        <v>64.08</v>
+        <v>1.97</v>
       </c>
       <c r="F94">
-        <v>1.97</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G94">
         <v>63.118000793457028</v>
@@ -11860,22 +11889,22 @@
         <v>9.08</v>
       </c>
       <c r="AC94">
+        <v>22.22</v>
+      </c>
+      <c r="AD94">
         <v>12.5</v>
       </c>
-      <c r="AD94">
+      <c r="AE94">
         <v>-17.239999999999998</v>
       </c>
-      <c r="AE94">
-        <v>27.47</v>
-      </c>
       <c r="AF94" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AG94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI94">
         <v>4.5</v>
@@ -11891,23 +11920,23 @@
       </c>
     </row>
     <row r="95" spans="1:38">
-      <c r="A95" s="1">
-        <v>103</v>
-      </c>
-      <c r="B95" t="s">
-        <v>233</v>
+      <c r="A95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95">
+        <v>97.532205494334931</v>
       </c>
       <c r="C95">
-        <v>97.532205494334931</v>
+        <v>1084</v>
       </c>
       <c r="D95">
-        <v>1084</v>
+        <v>105.7</v>
       </c>
       <c r="E95">
-        <v>105.7</v>
+        <v>1.92</v>
       </c>
       <c r="F95">
-        <v>1.92</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G95">
         <v>105.88800048828119</v>
@@ -11982,13 +12011,13 @@
         <v>-1.54</v>
       </c>
       <c r="AF95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH95" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AI95">
         <v>3.18</v>
@@ -12004,23 +12033,23 @@
       </c>
     </row>
     <row r="96" spans="1:38">
-      <c r="A96" s="1">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>235</v>
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96">
+        <v>94.761756945522265</v>
       </c>
       <c r="C96">
-        <v>94.761756945522265</v>
+        <v>1999</v>
       </c>
       <c r="D96">
-        <v>1999</v>
+        <v>87.18</v>
       </c>
       <c r="E96">
-        <v>87.18</v>
+        <v>2.19</v>
       </c>
       <c r="F96">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="G96">
         <v>81.275999450683599</v>
@@ -12095,13 +12124,13 @@
         <v>-14.39</v>
       </c>
       <c r="AF96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH96" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AI96">
         <v>5.53</v>
@@ -12117,23 +12146,23 @@
       </c>
     </row>
     <row r="97" spans="1:38">
-      <c r="A97" s="1">
-        <v>30</v>
-      </c>
-      <c r="B97" t="s">
-        <v>237</v>
+      <c r="A97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97">
+        <v>94.963526307620668</v>
       </c>
       <c r="C97">
-        <v>94.963526307620668</v>
+        <v>1908</v>
       </c>
       <c r="D97">
-        <v>1908</v>
+        <v>358.56</v>
       </c>
       <c r="E97">
-        <v>358.56</v>
+        <v>3.63</v>
       </c>
       <c r="F97">
-        <v>3.63</v>
+        <v>2.77</v>
       </c>
       <c r="G97">
         <v>350.7239990234375</v>
@@ -12208,45 +12237,45 @@
         <v>-69.430000000000007</v>
       </c>
       <c r="AF97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH97" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AI97">
-        <v>7.01</v>
+        <v>7.03</v>
       </c>
       <c r="AJ97">
         <v>9.36</v>
       </c>
       <c r="AK97">
-        <v>33.520000000000003</v>
+        <v>33.14</v>
       </c>
       <c r="AL97">
         <v>15.114389781109329</v>
       </c>
     </row>
     <row r="98" spans="1:38">
-      <c r="A98" s="1">
-        <v>60</v>
-      </c>
-      <c r="B98" t="s">
-        <v>238</v>
+      <c r="A98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98">
+        <v>92.596616483004809</v>
       </c>
       <c r="C98">
-        <v>92.596616483004809</v>
+        <v>4958</v>
       </c>
       <c r="D98">
-        <v>4958</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="E98">
-        <v>40.020000000000003</v>
+        <v>3.39</v>
       </c>
       <c r="F98">
-        <v>3.39</v>
+        <v>5.04</v>
       </c>
       <c r="G98">
         <v>40.005999755859378</v>
@@ -12321,45 +12350,45 @@
         <v>10</v>
       </c>
       <c r="AF98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH98" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AI98">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AJ98">
         <v>1.84</v>
       </c>
       <c r="AK98">
-        <v>25.17</v>
+        <v>24.32</v>
       </c>
       <c r="AL98">
         <v>14.77303030817987</v>
       </c>
     </row>
     <row r="99" spans="1:38">
-      <c r="A99" s="1">
-        <v>83</v>
-      </c>
-      <c r="B99" t="s">
-        <v>240</v>
+      <c r="A99" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99">
+        <v>91.323917429768741</v>
       </c>
       <c r="C99">
-        <v>91.323917429768741</v>
+        <v>3169</v>
       </c>
       <c r="D99">
-        <v>3169</v>
+        <v>135.38999999999999</v>
       </c>
       <c r="E99">
-        <v>135.38999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="F99">
-        <v>2.06</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G99">
         <v>131.7919982910156</v>
@@ -12434,13 +12463,13 @@
         <v>-21.59</v>
       </c>
       <c r="AF99" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI99">
         <v>3.89</v>
@@ -12456,23 +12485,23 @@
       </c>
     </row>
     <row r="100" spans="1:38">
-      <c r="A100" s="1">
-        <v>59</v>
-      </c>
-      <c r="B100" t="s">
-        <v>241</v>
+      <c r="A100" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100">
+        <v>93.1864038491386</v>
       </c>
       <c r="C100">
-        <v>93.1864038491386</v>
+        <v>1462</v>
       </c>
       <c r="D100">
-        <v>1462</v>
+        <v>87.23</v>
       </c>
       <c r="E100">
-        <v>87.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F100">
-        <v>2.2200000000000002</v>
+        <v>2.59</v>
       </c>
       <c r="G100">
         <v>87.328001403808599</v>
@@ -12547,13 +12576,13 @@
         <v>-7</v>
       </c>
       <c r="AF100" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG100" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI100">
         <v>7.56</v>
@@ -12569,23 +12598,23 @@
       </c>
     </row>
     <row r="101" spans="1:38">
-      <c r="A101" s="1">
-        <v>9</v>
-      </c>
-      <c r="B101" t="s">
-        <v>243</v>
+      <c r="A101" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101">
+        <v>95.646437994722959</v>
       </c>
       <c r="C101">
-        <v>95.646437994722959</v>
+        <v>1440</v>
       </c>
       <c r="D101">
-        <v>1440</v>
+        <v>384.46</v>
       </c>
       <c r="E101">
-        <v>384.46</v>
+        <v>2.95</v>
       </c>
       <c r="F101">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>369.1200012207031</v>
@@ -12660,45 +12689,45 @@
         <v>10.69</v>
       </c>
       <c r="AF101" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="AG101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH101" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AI101">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="AJ101">
         <v>9.41</v>
       </c>
       <c r="AK101">
-        <v>22.21</v>
+        <v>21.73</v>
       </c>
       <c r="AL101">
         <v>14.105464803692231</v>
       </c>
     </row>
     <row r="102" spans="1:38">
-      <c r="A102" s="1">
-        <v>32</v>
-      </c>
-      <c r="B102" t="s">
-        <v>245</v>
+      <c r="A102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102">
+        <v>95.095452428992715</v>
       </c>
       <c r="C102">
-        <v>95.095452428992715</v>
+        <v>1236</v>
       </c>
       <c r="D102">
-        <v>1236</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="E102">
-        <v>40.880000000000003</v>
+        <v>1.41</v>
       </c>
       <c r="F102">
-        <v>1.41</v>
+        <v>5.32</v>
       </c>
       <c r="G102">
         <v>40.234000396728518</v>
@@ -12773,13 +12802,13 @@
         <v>62.5</v>
       </c>
       <c r="AF102" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG102" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH102" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AI102">
         <v>0.8</v>
@@ -12795,136 +12824,137 @@
       </c>
     </row>
     <row r="103" spans="1:38">
-      <c r="A103" s="1">
-        <v>31</v>
-      </c>
-      <c r="B103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C103">
+      <c r="A103" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" s="2">
         <v>96.181902840291784</v>
       </c>
-      <c r="D103">
+      <c r="C103" s="2">
         <v>2606</v>
       </c>
-      <c r="E103">
+      <c r="D103" s="2">
         <v>152.13999999999999</v>
       </c>
-      <c r="F103">
+      <c r="E103" s="2">
         <v>2.14</v>
       </c>
-      <c r="G103">
+      <c r="F103" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="G103" s="2">
         <v>150.56000061035161</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="2">
         <v>148.97299880981441</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="2">
         <v>142.26119979858399</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="2">
         <v>108.9199500274658</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="2">
         <v>1.01</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="2">
         <v>1.06</v>
       </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103" t="b">
-        <v>0</v>
-      </c>
-      <c r="T103" t="b">
-        <v>1</v>
-      </c>
-      <c r="U103" t="b">
-        <v>0</v>
-      </c>
-      <c r="V103">
+      <c r="M103" s="2"/>
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2">
+        <v>0</v>
+      </c>
+      <c r="S103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V103" s="2">
         <v>63.7</v>
       </c>
-      <c r="W103">
+      <c r="W103" s="2">
         <v>157.13</v>
       </c>
-      <c r="X103">
+      <c r="X103" s="2">
         <v>6.65</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="2">
         <v>118.73</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="2">
         <v>11.96</v>
       </c>
-      <c r="AA103">
+      <c r="AA103" s="2">
         <v>46.65</v>
       </c>
-      <c r="AB103">
+      <c r="AB103" s="2">
         <v>77.040000000000006</v>
       </c>
-      <c r="AC103">
+      <c r="AC103" s="2">
         <v>-85.37</v>
       </c>
-      <c r="AD103">
+      <c r="AD103" s="2">
         <v>635.9</v>
       </c>
-      <c r="AE103">
+      <c r="AE103" s="2">
         <v>30</v>
       </c>
-      <c r="AF103" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH103" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI103">
-        <v>3.88</v>
-      </c>
-      <c r="AJ103">
+      <c r="AF103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH103" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI103" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="AJ103" s="2">
         <v>3.81</v>
       </c>
-      <c r="AK103">
-        <v>-1.8</v>
-      </c>
-      <c r="AL103">
+      <c r="AK103" s="2">
+        <v>-1.55</v>
+      </c>
+      <c r="AL103" s="2">
         <v>13.7205659295103</v>
       </c>
     </row>
     <row r="104" spans="1:38">
-      <c r="A104" s="1">
-        <v>117</v>
-      </c>
-      <c r="B104" t="s">
-        <v>249</v>
+      <c r="A104" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104">
+        <v>90.121061617259045</v>
       </c>
       <c r="C104">
-        <v>90.121061617259045</v>
+        <v>2510</v>
       </c>
       <c r="D104">
-        <v>2510</v>
+        <v>55.15</v>
       </c>
       <c r="E104">
-        <v>55.15</v>
+        <v>2.04</v>
       </c>
       <c r="F104">
-        <v>2.04</v>
+        <v>2.23</v>
       </c>
       <c r="G104">
         <v>54.538000488281249</v>
@@ -12999,13 +13029,13 @@
         <v>7.59</v>
       </c>
       <c r="AF104" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH104" t="s">
         <v>148</v>
-      </c>
-      <c r="AG104" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH104" t="s">
-        <v>145</v>
       </c>
       <c r="AI104">
         <v>3.56</v>
@@ -13021,23 +13051,23 @@
       </c>
     </row>
     <row r="105" spans="1:38">
-      <c r="A105" s="1">
-        <v>111</v>
-      </c>
-      <c r="B105" t="s">
-        <v>250</v>
+      <c r="A105" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105">
+        <v>96.236225360856736</v>
       </c>
       <c r="C105">
-        <v>96.236225360856736</v>
+        <v>4476</v>
       </c>
       <c r="D105">
-        <v>4476</v>
+        <v>358.42</v>
       </c>
       <c r="E105">
-        <v>358.42</v>
+        <v>3.43</v>
       </c>
       <c r="F105">
-        <v>3.43</v>
+        <v>2.88</v>
       </c>
       <c r="G105">
         <v>341.1720031738281</v>
@@ -13112,45 +13142,45 @@
         <v>-1.92</v>
       </c>
       <c r="AF105" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI105">
-        <v>6.39</v>
+        <v>6.42</v>
       </c>
       <c r="AJ105">
         <v>8.27</v>
       </c>
       <c r="AK105">
-        <v>29.42</v>
+        <v>28.82</v>
       </c>
       <c r="AL105">
         <v>13.422673261678041</v>
       </c>
     </row>
     <row r="106" spans="1:38">
-      <c r="A106" s="1">
-        <v>95</v>
-      </c>
-      <c r="B106" t="s">
-        <v>251</v>
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106">
+        <v>91.905944435821823</v>
       </c>
       <c r="C106">
-        <v>91.905944435821823</v>
+        <v>1363</v>
       </c>
       <c r="D106">
-        <v>1363</v>
+        <v>244.94</v>
       </c>
       <c r="E106">
-        <v>244.94</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F106">
-        <v>2.1800000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="G106">
         <v>245.7200012207031</v>
@@ -13225,45 +13255,45 @@
         <v>-4.7</v>
       </c>
       <c r="AF106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH106" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AI106">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="AJ106">
         <v>9.9600000000000009</v>
       </c>
       <c r="AK106">
-        <v>43.93</v>
+        <v>43.72</v>
       </c>
       <c r="AL106">
         <v>13.059827403110891</v>
       </c>
     </row>
     <row r="107" spans="1:38">
-      <c r="A107" s="1">
-        <v>101</v>
-      </c>
-      <c r="B107" t="s">
-        <v>253</v>
+      <c r="A107" t="s">
+        <v>257</v>
+      </c>
+      <c r="B107">
+        <v>95.211857830203314</v>
       </c>
       <c r="C107">
-        <v>95.211857830203314</v>
+        <v>2756</v>
       </c>
       <c r="D107">
-        <v>2756</v>
+        <v>162.57</v>
       </c>
       <c r="E107">
-        <v>162.57</v>
+        <v>2.84</v>
       </c>
       <c r="F107">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="G107">
         <v>157.8800048828125</v>
@@ -13338,45 +13368,45 @@
         <v>-156.96</v>
       </c>
       <c r="AF107" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH107" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI107">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="AJ107">
         <v>6.19</v>
       </c>
       <c r="AK107">
-        <v>78.900000000000006</v>
+        <v>79.42</v>
       </c>
       <c r="AL107">
         <v>12.734142500759249</v>
       </c>
     </row>
     <row r="108" spans="1:38">
-      <c r="A108" s="1">
-        <v>88</v>
-      </c>
-      <c r="B108" t="s">
-        <v>254</v>
+      <c r="A108" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108">
+        <v>92.162036318485178</v>
       </c>
       <c r="C108">
-        <v>92.162036318485178</v>
+        <v>2398</v>
       </c>
       <c r="D108">
-        <v>2398</v>
+        <v>59.12</v>
       </c>
       <c r="E108">
-        <v>59.12</v>
+        <v>3.14</v>
       </c>
       <c r="F108">
-        <v>3.14</v>
+        <v>2.96</v>
       </c>
       <c r="G108">
         <v>57.331999206542967</v>
@@ -13451,13 +13481,13 @@
         <v>-20</v>
       </c>
       <c r="AF108" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH108" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI108">
         <v>2.84</v>
@@ -13473,23 +13503,23 @@
       </c>
     </row>
     <row r="109" spans="1:38">
-      <c r="A109" s="1">
-        <v>79</v>
-      </c>
-      <c r="B109" t="s">
-        <v>255</v>
+      <c r="A109" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109">
+        <v>93.822753375756633</v>
       </c>
       <c r="C109">
-        <v>93.822753375756633</v>
+        <v>2884</v>
       </c>
       <c r="D109">
-        <v>2884</v>
+        <v>146.96</v>
       </c>
       <c r="E109">
-        <v>146.96</v>
+        <v>1.79</v>
       </c>
       <c r="F109">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="G109">
         <v>142.03199768066409</v>
@@ -13510,7 +13540,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M109" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -13567,13 +13597,13 @@
         <v>-22.28</v>
       </c>
       <c r="AF109" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG109" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH109" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AI109">
         <v>6.97</v>
@@ -13589,23 +13619,23 @@
       </c>
     </row>
     <row r="110" spans="1:38">
-      <c r="A110" s="1">
-        <v>34</v>
-      </c>
-      <c r="B110" t="s">
-        <v>257</v>
+      <c r="A110" t="s">
+        <v>261</v>
+      </c>
+      <c r="B110">
+        <v>95.374825391898185</v>
       </c>
       <c r="C110">
-        <v>95.374825391898185</v>
+        <v>2698</v>
       </c>
       <c r="D110">
-        <v>2698</v>
+        <v>195.71</v>
       </c>
       <c r="E110">
-        <v>195.71</v>
+        <v>2.19</v>
       </c>
       <c r="F110">
-        <v>2.19</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G110">
         <v>191.0220031738281</v>
@@ -13626,7 +13656,7 @@
         <v>1.06</v>
       </c>
       <c r="M110" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -13683,13 +13713,13 @@
         <v>-71.58</v>
       </c>
       <c r="AF110" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH110" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI110">
         <v>8.0399999999999991</v>
@@ -13705,23 +13735,23 @@
       </c>
     </row>
     <row r="111" spans="1:38">
-      <c r="A111" s="1">
-        <v>54</v>
-      </c>
-      <c r="B111" t="s">
-        <v>258</v>
+      <c r="A111" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111">
+        <v>90.400434580164529</v>
       </c>
       <c r="C111">
-        <v>90.400434580164529</v>
+        <v>1310</v>
       </c>
       <c r="D111">
-        <v>1310</v>
+        <v>486.2</v>
       </c>
       <c r="E111">
-        <v>486.2</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F111">
-        <v>1.1299999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="G111">
         <v>486.60200805664061</v>
@@ -13796,13 +13826,13 @@
         <v>-1.67</v>
       </c>
       <c r="AF111" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG111" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH111" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AI111">
         <v>5.83</v>
@@ -13818,23 +13848,23 @@
       </c>
     </row>
     <row r="112" spans="1:38">
-      <c r="A112" s="1">
-        <v>50</v>
-      </c>
-      <c r="B112" t="s">
-        <v>260</v>
+      <c r="A112" t="s">
+        <v>264</v>
+      </c>
+      <c r="B112">
+        <v>95.095452428992715</v>
       </c>
       <c r="C112">
-        <v>95.095452428992715</v>
+        <v>3524</v>
       </c>
       <c r="D112">
-        <v>3524</v>
+        <v>121.4</v>
       </c>
       <c r="E112">
-        <v>121.4</v>
+        <v>2.02</v>
       </c>
       <c r="F112">
-        <v>2.02</v>
+        <v>3.11</v>
       </c>
       <c r="G112">
         <v>120.6960006713867</v>
@@ -13909,13 +13939,13 @@
         <v>-35.14</v>
       </c>
       <c r="AF112" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH112" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AI112">
         <v>3.85</v>
@@ -13931,23 +13961,23 @@
       </c>
     </row>
     <row r="113" spans="1:38">
-      <c r="A113" s="1">
-        <v>62</v>
-      </c>
-      <c r="B113" t="s">
-        <v>262</v>
+      <c r="A113" t="s">
+        <v>266</v>
+      </c>
+      <c r="B113">
+        <v>93.000155207201615</v>
       </c>
       <c r="C113">
-        <v>93.000155207201615</v>
+        <v>2500</v>
       </c>
       <c r="D113">
-        <v>2500</v>
+        <v>78.72</v>
       </c>
       <c r="E113">
-        <v>78.72</v>
+        <v>1.41</v>
       </c>
       <c r="F113">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="G113">
         <v>77.476000976562503</v>
@@ -14022,13 +14052,13 @@
         <v>16.04</v>
       </c>
       <c r="AF113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG113" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH113" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AI113">
         <v>4.2300000000000004</v>
@@ -14044,23 +14074,23 @@
       </c>
     </row>
     <row r="114" spans="1:38">
-      <c r="A114" s="1">
-        <v>41</v>
-      </c>
-      <c r="B114" t="s">
-        <v>264</v>
+      <c r="A114" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114">
+        <v>90.695328263231417</v>
       </c>
       <c r="C114">
-        <v>90.695328263231417</v>
+        <v>2601</v>
       </c>
       <c r="D114">
-        <v>2601</v>
+        <v>287.67</v>
       </c>
       <c r="E114">
-        <v>287.67</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F114">
-        <v>2.5299999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="G114">
         <v>284.55800781250002</v>
@@ -14135,158 +14165,159 @@
         <v>-12.59</v>
       </c>
       <c r="AF114" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH114" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AI114">
-        <v>14.14</v>
+        <v>14.15</v>
       </c>
       <c r="AJ114">
         <v>17.55</v>
       </c>
       <c r="AK114">
-        <v>24.12</v>
+        <v>24.03</v>
       </c>
       <c r="AL114">
         <v>11.27311764547888</v>
       </c>
     </row>
     <row r="115" spans="1:38">
-      <c r="A115" s="1">
-        <v>65</v>
-      </c>
-      <c r="B115" t="s">
-        <v>265</v>
-      </c>
-      <c r="C115">
+      <c r="A115" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B115" s="2">
         <v>94.001241657612908</v>
       </c>
-      <c r="D115">
+      <c r="C115" s="2">
         <v>1612</v>
       </c>
-      <c r="E115">
+      <c r="D115" s="2">
         <v>85.03</v>
       </c>
-      <c r="F115">
+      <c r="E115" s="2">
         <v>1.57</v>
       </c>
-      <c r="G115">
+      <c r="F115" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="G115" s="2">
         <v>83.229998779296878</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="2">
         <v>81.327999496459967</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="2">
         <v>77.935399475097654</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="2">
         <v>67.01349969863891</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="2">
         <v>1.02</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="2">
         <v>1.07</v>
       </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115" t="b">
-        <v>0</v>
-      </c>
-      <c r="T115" t="b">
-        <v>1</v>
-      </c>
-      <c r="U115" t="b">
-        <v>0</v>
-      </c>
-      <c r="V115">
+      <c r="M115" s="2"/>
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
+        <v>0</v>
+      </c>
+      <c r="P115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>0</v>
+      </c>
+      <c r="R115" s="2">
+        <v>0</v>
+      </c>
+      <c r="S115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V115" s="2">
         <v>43.77</v>
       </c>
-      <c r="W115">
+      <c r="W115" s="2">
         <v>86.03</v>
       </c>
-      <c r="X115">
+      <c r="X115" s="2">
         <v>3.68</v>
       </c>
-      <c r="Y115">
+      <c r="Y115" s="2">
         <v>38.85</v>
       </c>
-      <c r="Z115">
+      <c r="Z115" s="2">
         <v>6.24</v>
       </c>
-      <c r="AA115">
+      <c r="AA115" s="2">
         <v>40.29</v>
       </c>
-      <c r="AB115">
+      <c r="AB115" s="2">
         <v>19.23</v>
       </c>
-      <c r="AC115">
+      <c r="AC115" s="2">
         <v>-9.82</v>
       </c>
-      <c r="AD115">
+      <c r="AD115" s="2">
         <v>3.82</v>
       </c>
-      <c r="AE115">
+      <c r="AE115" s="2">
         <v>1327.27</v>
       </c>
-      <c r="AF115" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG115" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH115" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI115">
+      <c r="AF115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH115" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI115" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="AJ115">
+      <c r="AJ115" s="2">
         <v>5.68</v>
       </c>
-      <c r="AK115">
+      <c r="AK115" s="2">
         <v>21.11</v>
       </c>
-      <c r="AL115">
+      <c r="AL115" s="2">
         <v>10.84718885618762</v>
       </c>
     </row>
     <row r="116" spans="1:38">
-      <c r="A116" s="1">
-        <v>81</v>
-      </c>
-      <c r="B116" t="s">
-        <v>266</v>
+      <c r="A116" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116">
+        <v>93.636504733819649</v>
       </c>
       <c r="C116">
-        <v>93.636504733819649</v>
+        <v>640</v>
       </c>
       <c r="D116">
-        <v>640</v>
+        <v>141.86000000000001</v>
       </c>
       <c r="E116">
-        <v>141.86000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="F116">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
       <c r="G116">
         <v>141.67000122070311</v>
@@ -14361,45 +14392,45 @@
         <v>12.67</v>
       </c>
       <c r="AF116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI116">
-        <v>13.11</v>
+        <v>13.09</v>
       </c>
       <c r="AJ116">
         <v>13.68</v>
       </c>
       <c r="AK116">
-        <v>4.3499999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="AL116">
         <v>10.65947013372312</v>
       </c>
     </row>
     <row r="117" spans="1:38">
-      <c r="A117" s="1">
-        <v>18</v>
-      </c>
-      <c r="B117" t="s">
-        <v>267</v>
+      <c r="A117" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117">
+        <v>90.121061617259045</v>
       </c>
       <c r="C117">
-        <v>90.121061617259045</v>
+        <v>3193</v>
       </c>
       <c r="D117">
-        <v>3193</v>
+        <v>272.23</v>
       </c>
       <c r="E117">
-        <v>272.23</v>
+        <v>1.68</v>
       </c>
       <c r="F117">
-        <v>1.68</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G117">
         <v>267.92000122070311</v>
@@ -14420,7 +14451,7 @@
         <v>1.08</v>
       </c>
       <c r="M117" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -14477,45 +14508,45 @@
         <v>-19.940000000000001</v>
       </c>
       <c r="AF117" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG117" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH117" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI117">
-        <v>12.29</v>
+        <v>12.3</v>
       </c>
       <c r="AJ117">
         <v>16.45</v>
       </c>
       <c r="AK117">
-        <v>33.85</v>
+        <v>33.74</v>
       </c>
       <c r="AL117">
         <v>9.5378950267302738</v>
       </c>
     </row>
     <row r="118" spans="1:38">
-      <c r="A118" s="1">
-        <v>16</v>
-      </c>
-      <c r="B118" t="s">
-        <v>269</v>
+      <c r="A118" t="s">
+        <v>273</v>
+      </c>
+      <c r="B118">
+        <v>92.82166692534534</v>
       </c>
       <c r="C118">
-        <v>92.82166692534534</v>
+        <v>3153</v>
       </c>
       <c r="D118">
-        <v>3153</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="E118">
-        <v>131.30000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="F118">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="G118">
         <v>129.48000183105469</v>
@@ -14590,45 +14621,45 @@
         <v>-32.049999999999997</v>
       </c>
       <c r="AF118" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH118" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI118">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="AJ118">
         <v>6.77</v>
       </c>
       <c r="AK118">
-        <v>23.77</v>
+        <v>23.54</v>
       </c>
       <c r="AL118">
         <v>8.8892340563899861</v>
       </c>
     </row>
     <row r="119" spans="1:38">
-      <c r="A119" s="1">
-        <v>21</v>
-      </c>
-      <c r="B119" t="s">
-        <v>270</v>
+      <c r="A119" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119">
+        <v>95.095452428992715</v>
       </c>
       <c r="C119">
-        <v>95.095452428992715</v>
+        <v>2367</v>
       </c>
       <c r="D119">
-        <v>2367</v>
+        <v>167.81</v>
       </c>
       <c r="E119">
-        <v>167.81</v>
+        <v>2.87</v>
       </c>
       <c r="F119">
-        <v>2.87</v>
+        <v>3.33</v>
       </c>
       <c r="G119">
         <v>161.25200195312499</v>
@@ -14703,45 +14734,45 @@
         <v>100</v>
       </c>
       <c r="AF119" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH119" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AI119">
-        <v>4.9400000000000004</v>
+        <v>4.93</v>
       </c>
       <c r="AJ119">
         <v>6.38</v>
       </c>
       <c r="AK119">
-        <v>29.15</v>
+        <v>29.41</v>
       </c>
       <c r="AL119">
         <v>8.0666137262075388</v>
       </c>
     </row>
     <row r="120" spans="1:38">
-      <c r="A120" s="1">
-        <v>40</v>
-      </c>
-      <c r="B120" t="s">
-        <v>271</v>
+      <c r="A120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B120">
+        <v>91.013503026540434</v>
       </c>
       <c r="C120">
-        <v>91.013503026540434</v>
+        <v>3338</v>
       </c>
       <c r="D120">
-        <v>3338</v>
+        <v>47.84</v>
       </c>
       <c r="E120">
-        <v>47.84</v>
+        <v>2.04</v>
       </c>
       <c r="F120">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G120">
         <v>47.873999786376963</v>
@@ -14816,13 +14847,13 @@
         <v>53.66</v>
       </c>
       <c r="AF120" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH120" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI120">
         <v>2.4900000000000002</v>
@@ -14838,23 +14869,23 @@
       </c>
     </row>
     <row r="121" spans="1:38">
-      <c r="A121" s="1">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>273</v>
+      <c r="A121" t="s">
+        <v>277</v>
+      </c>
+      <c r="B121">
+        <v>95.537792953593055</v>
       </c>
       <c r="C121">
-        <v>95.537792953593055</v>
+        <v>1195</v>
       </c>
       <c r="D121">
-        <v>1195</v>
+        <v>148.81</v>
       </c>
       <c r="E121">
-        <v>148.81</v>
+        <v>2.61</v>
       </c>
       <c r="F121">
-        <v>2.61</v>
+        <v>3.16</v>
       </c>
       <c r="G121">
         <v>147.73600158691411</v>
@@ -14929,45 +14960,45 @@
         <v>48.38</v>
       </c>
       <c r="AF121" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG121" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH121" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AI121">
-        <v>8.33</v>
+        <v>8.32</v>
       </c>
       <c r="AJ121">
         <v>8.18</v>
       </c>
       <c r="AK121">
-        <v>-1.8</v>
+        <v>-1.68</v>
       </c>
       <c r="AL121">
         <v>7.0112053524764493</v>
       </c>
     </row>
     <row r="122" spans="1:38">
-      <c r="A122" s="1">
-        <v>116</v>
-      </c>
-      <c r="B122" t="s">
-        <v>276</v>
+      <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122">
+        <v>91.905944435821823</v>
       </c>
       <c r="C122">
-        <v>91.905944435821823</v>
+        <v>2492</v>
       </c>
       <c r="D122">
-        <v>2492</v>
+        <v>106.75</v>
       </c>
       <c r="E122">
-        <v>106.75</v>
+        <v>1.9</v>
       </c>
       <c r="F122">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="G122">
         <v>106.2879989624023</v>
@@ -15042,13 +15073,13 @@
         <v>-26.63</v>
       </c>
       <c r="AF122" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH122" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI122">
         <v>7.75</v>
@@ -15064,23 +15095,23 @@
       </c>
     </row>
     <row r="123" spans="1:38">
-      <c r="A123" s="1">
-        <v>115</v>
-      </c>
-      <c r="B123" t="s">
-        <v>277</v>
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123">
+        <v>92.162036318485178</v>
       </c>
       <c r="C123">
-        <v>92.162036318485178</v>
+        <v>2507</v>
       </c>
       <c r="D123">
-        <v>2507</v>
+        <v>783.6</v>
       </c>
       <c r="E123">
-        <v>783.6</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F123">
-        <v>2.1800000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G123">
         <v>772.80999755859375</v>
@@ -15155,45 +15186,45 @@
         <v>19.77</v>
       </c>
       <c r="AF123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG123" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH123" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AI123">
-        <v>37.79</v>
+        <v>37.85</v>
       </c>
       <c r="AJ123">
         <v>47.53</v>
       </c>
       <c r="AK123">
-        <v>25.77</v>
+        <v>25.57</v>
       </c>
       <c r="AL123">
         <v>6.684210435457862</v>
       </c>
     </row>
     <row r="124" spans="1:38">
-      <c r="A124" s="1">
-        <v>14</v>
-      </c>
-      <c r="B124" t="s">
-        <v>279</v>
+      <c r="A124" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124">
+        <v>91.013503026540434</v>
       </c>
       <c r="C124">
-        <v>91.013503026540434</v>
+        <v>1700</v>
       </c>
       <c r="D124">
-        <v>1700</v>
+        <v>37.15</v>
       </c>
       <c r="E124">
-        <v>37.15</v>
+        <v>2.33</v>
       </c>
       <c r="F124">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="G124">
         <v>36.162000274658197</v>
@@ -15247,7 +15278,7 @@
         <v>3.1</v>
       </c>
       <c r="Y124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z124">
         <v>0.82</v>
@@ -15268,13 +15299,13 @@
         <v>-4.4400000000000004</v>
       </c>
       <c r="AF124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG124" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH124" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AI124">
         <v>2.08</v>
